--- a/exp2/case01/report/motivation/interest-enjoyment/MeasurementAnovaAnalysis.xlsx
+++ b/exp2/case01/report/motivation/interest-enjoyment/MeasurementAnovaAnalysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="143">
   <si>
     <t>Summary of ANOVA for Interest/Enjoyment</t>
   </si>
@@ -133,7 +133,7 @@
     <t>current.size is = 13 and recommended.size must be = 15 for the group: 'non-gamified:Apprentice'. Size sample for parametric test isn't recomended</t>
   </si>
   <si>
-    <t>current.size is = 13 and recommended.size must be = 15 for the group: 'ont-gamified:Apprentice'. Size sample for parametric test isn't recomended</t>
+    <t>current.size is = 12 and recommended.size must be = 15 for the group: 'ont-gamified:Apprentice'. Size sample for parametric test isn't recomended</t>
   </si>
   <si>
     <t>For the group: 'non-gamified:Apprentice', we recommend the use of non parametric test.
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>Student's t-Test for Interest/Enjoyment in Type:CLRole between non-gamified.Apprentice:ont-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>negligible</t>
   </si>
   <si>
     <t>Student's t-Test for Interest/Enjoyment in Type:CLRole between non-gamified.Apprentice:ont-gamified.Master</t>
@@ -8850,19 +8847,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="D6" t="n" s="33">
-        <v>1.2724184675010102</v>
+        <v>1.2835118278192683</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>1.3915273863290505</v>
+        <v>0.9041336685325018</v>
       </c>
       <c r="F6" t="n" s="35">
-        <v>0.025015819419270523</v>
+        <v>0.016440114780673018</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.24351612325107408</v>
+        <v>0.34616035642709175</v>
       </c>
     </row>
     <row r="7">
@@ -8873,19 +8870,19 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="D7" t="n" s="33">
-        <v>1.2724184675010102</v>
+        <v>1.2835118278192683</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>0.021573970078163644</v>
+        <v>0.01224567201757844</v>
       </c>
       <c r="F7" t="n" s="35">
-        <v>3.977914809367405E-4</v>
+        <v>2.2638832126425614E-4</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.8837940957828477</v>
+        <v>0.9123201737032212</v>
       </c>
     </row>
     <row r="8">
@@ -8896,19 +8893,19 @@
         <v>1.0</v>
       </c>
       <c r="C8" t="n" s="32">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="D8" t="n" s="33">
-        <v>1.2724184675010102</v>
+        <v>1.2835118278192683</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>2.2127953214811096</v>
+        <v>3.0792019309020295</v>
       </c>
       <c r="F8" t="n" s="35">
-        <v>0.04080060947303206</v>
+        <v>0.0569258555161283</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.14290972279375547</v>
+        <v>0.0853056006321097</v>
       </c>
     </row>
     <row r="9">
@@ -8946,16 +8943,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="55">
-        <v>0.014646041233177698</v>
+        <v>1.4054351992421346</v>
       </c>
       <c r="C13" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="57">
-        <v>0.011510396624424655</v>
+        <v>1.094992012368143</v>
       </c>
       <c r="E13" t="n" s="58">
-        <v>0.914974552174176</v>
+        <v>0.30030204283910283</v>
       </c>
     </row>
     <row r="14">
@@ -8963,16 +8960,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="n" s="55">
-        <v>1.7706051443985018</v>
+        <v>1.1604662574910947</v>
       </c>
       <c r="C14" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>1.3915273863290505</v>
+        <v>0.9041336685325018</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.24351612325107408</v>
+        <v>0.34616035642709175</v>
       </c>
     </row>
     <row r="15">
@@ -8980,16 +8977,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="n" s="55">
-        <v>0.02745111794476429</v>
+        <v>0.015717464874157372</v>
       </c>
       <c r="C15" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>0.021573970078163644</v>
+        <v>0.01224567201757844</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.8837940957828477</v>
+        <v>0.9123201737032212</v>
       </c>
     </row>
     <row r="16">
@@ -8997,16 +8994,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="n" s="55">
-        <v>2.8156016318524024</v>
+        <v>3.9521920985566794</v>
       </c>
       <c r="C16" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>2.2127953214811096</v>
+        <v>3.0792019309020295</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.14290972279375547</v>
+        <v>0.0853056006321097</v>
       </c>
     </row>
     <row r="17">
@@ -9014,10 +9011,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="55">
-        <v>66.16576031005253</v>
+        <v>65.45910321878269</v>
       </c>
       <c r="C17" t="n" s="56">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
@@ -9068,7 +9065,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1209">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -9140,34 +9137,34 @@
         <v>15.0</v>
       </c>
       <c r="C7" t="n" s="1252">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D7" t="n" s="1253">
-        <v>-0.806145661580967</v>
+        <v>-0.8304394524276384</v>
       </c>
       <c r="E7" t="n" s="1254">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F7" t="n" s="1255">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G7" t="n" s="1256">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H7" t="n" s="1257">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I7" t="n" s="1258">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J7" t="n" s="1259">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K7" t="n" s="1260">
-        <v>0.03199750044628873</v>
+        <v>0.031494087437973405</v>
       </c>
       <c r="L7" t="n" s="1261">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M7" t="s" s="1262">
         <v>87</v>
@@ -9181,34 +9178,34 @@
         <v>15.0</v>
       </c>
       <c r="C8" t="n" s="1252">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D8" t="n" s="1253">
-        <v>0.806145661580967</v>
+        <v>0.8304394524276384</v>
       </c>
       <c r="E8" t="n" s="1254">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F8" t="n" s="1255">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G8" t="n" s="1256">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H8" t="n" s="1257">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I8" t="n" s="1258">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J8" t="n" s="1259">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K8" t="n" s="1260">
-        <v>0.03199750044628873</v>
+        <v>0.031494087437973405</v>
       </c>
       <c r="L8" t="n" s="1261">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M8" t="s" s="1262">
         <v>87</v>
@@ -9268,34 +9265,34 @@
         <v>15.0</v>
       </c>
       <c r="C11" t="n" s="1283">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D11" t="n" s="1284">
-        <v>-0.806145661580967</v>
+        <v>-0.8304394524276384</v>
       </c>
       <c r="E11" t="n" s="1285">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F11" t="n" s="1286">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G11" t="n" s="1287">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H11" t="n" s="1288">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I11" t="n" s="1289">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J11" t="n" s="1290">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K11" t="n" s="1291">
-        <v>0.9680024995537113</v>
+        <v>0.9685059125620266</v>
       </c>
       <c r="L11" t="n" s="1292">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M11" t="s" s="1293">
         <v>87</v>
@@ -9309,34 +9306,34 @@
         <v>15.0</v>
       </c>
       <c r="C12" t="n" s="1283">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D12" t="n" s="1284">
-        <v>0.806145661580967</v>
+        <v>0.8304394524276384</v>
       </c>
       <c r="E12" t="n" s="1285">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F12" t="n" s="1286">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G12" t="n" s="1287">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H12" t="n" s="1288">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I12" t="n" s="1289">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J12" t="n" s="1290">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K12" t="n" s="1291">
-        <v>0.9680024995537113</v>
+        <v>0.9685059125620266</v>
       </c>
       <c r="L12" t="n" s="1292">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M12" t="s" s="1293">
         <v>87</v>
@@ -9396,34 +9393,34 @@
         <v>15.0</v>
       </c>
       <c r="C15" t="n" s="1314">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D15" t="n" s="1315">
-        <v>-0.806145661580967</v>
+        <v>-0.8304394524276384</v>
       </c>
       <c r="E15" t="n" s="1316">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F15" t="n" s="1317">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G15" t="n" s="1318">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H15" t="n" s="1319">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I15" t="n" s="1320">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J15" t="n" s="1321">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K15" t="n" s="1322">
-        <v>0.06399500089257747</v>
+        <v>0.06298817487594681</v>
       </c>
       <c r="L15" t="n" s="1323">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M15" t="s" s="1324">
         <v>87</v>
@@ -9437,34 +9434,34 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n" s="1314">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D16" t="n" s="1315">
-        <v>0.806145661580967</v>
+        <v>0.8304394524276384</v>
       </c>
       <c r="E16" t="n" s="1316">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F16" t="n" s="1317">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G16" t="n" s="1318">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H16" t="n" s="1319">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I16" t="n" s="1320">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J16" t="n" s="1321">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K16" t="n" s="1322">
-        <v>0.06399500089257747</v>
+        <v>0.06298817487594681</v>
       </c>
       <c r="L16" t="n" s="1323">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M16" t="s" s="1324">
         <v>87</v>
@@ -9879,13 +9876,13 @@
         <v>134</v>
       </c>
       <c r="G90" t="n" s="1361">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H90" t="n" s="1362">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I90" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -9908,13 +9905,13 @@
         <v>135</v>
       </c>
       <c r="G91" t="n" s="1361">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H91" t="n" s="1362">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I91" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -9937,13 +9934,13 @@
         <v>134</v>
       </c>
       <c r="G92" t="n" s="1361">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H92" t="n" s="1362">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I92" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -9966,13 +9963,13 @@
         <v>136</v>
       </c>
       <c r="G93" t="n" s="1361">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H93" t="n" s="1362">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I93" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -9995,13 +9992,13 @@
         <v>135</v>
       </c>
       <c r="G94" t="n" s="1361">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H94" t="n" s="1362">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I94" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -10024,13 +10021,13 @@
         <v>135</v>
       </c>
       <c r="G95" t="n" s="1361">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H95" t="n" s="1362">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I95" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -10053,13 +10050,13 @@
         <v>136</v>
       </c>
       <c r="G96" t="n" s="1361">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H96" t="n" s="1362">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I96" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -10082,13 +10079,13 @@
         <v>135</v>
       </c>
       <c r="G97" t="n" s="1361">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H97" t="n" s="1362">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I97" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -10111,13 +10108,13 @@
         <v>136</v>
       </c>
       <c r="G98" t="n" s="1361">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H98" t="n" s="1362">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I98" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -10140,13 +10137,13 @@
         <v>135</v>
       </c>
       <c r="G99" t="n" s="1361">
-        <v>1.0416617962434696</v>
+        <v>0.976849840874514</v>
       </c>
       <c r="H99" t="n" s="1362">
-        <v>0.4991231961083911</v>
+        <v>0.4967601069555859</v>
       </c>
       <c r="I99" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -10169,13 +10166,13 @@
         <v>134</v>
       </c>
       <c r="G100" t="n" s="1361">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H100" t="n" s="1362">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I100" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -10198,13 +10195,13 @@
         <v>134</v>
       </c>
       <c r="G101" t="n" s="1361">
-        <v>-1.3607329886887947</v>
+        <v>-1.5225278839917182</v>
       </c>
       <c r="H101" t="n" s="1362">
-        <v>0.45264088727971863</v>
+        <v>0.45384242527133106</v>
       </c>
       <c r="I101" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
@@ -10227,13 +10224,13 @@
         <v>134</v>
       </c>
       <c r="G102" t="n" s="1361">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H102" t="n" s="1362">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I102" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
@@ -10256,13 +10253,13 @@
         <v>134</v>
       </c>
       <c r="G103" t="n" s="1361">
-        <v>2.430878115710258</v>
+        <v>2.313299396435265</v>
       </c>
       <c r="H103" t="n" s="1362">
-        <v>0.8388341444082589</v>
+        <v>0.8204623719766662</v>
       </c>
       <c r="I103" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
@@ -10285,13 +10282,13 @@
         <v>134</v>
       </c>
       <c r="G104" t="n" s="1361">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H104" t="n" s="1362">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I104" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
@@ -10314,13 +10311,13 @@
         <v>135</v>
       </c>
       <c r="G105" t="n" s="1361">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H105" t="n" s="1362">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I105" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
@@ -10343,13 +10340,13 @@
         <v>135</v>
       </c>
       <c r="G106" t="n" s="1361">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H106" t="n" s="1362">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I106" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
@@ -10372,13 +10369,13 @@
         <v>136</v>
       </c>
       <c r="G107" t="n" s="1361">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H107" t="n" s="1362">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I107" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
@@ -10401,13 +10398,13 @@
         <v>135</v>
       </c>
       <c r="G108" t="n" s="1361">
-        <v>-1.5460174618832232</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H108" t="n" s="1362">
-        <v>0.4434453204926454</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I108" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
@@ -10430,13 +10427,13 @@
         <v>136</v>
       </c>
       <c r="G109" t="n" s="1361">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H109" t="n" s="1362">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I109" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
@@ -10459,13 +10456,13 @@
         <v>135</v>
       </c>
       <c r="G110" t="n" s="1361">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H110" t="n" s="1362">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I110" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
@@ -10488,13 +10485,13 @@
         <v>135</v>
       </c>
       <c r="G111" t="n" s="1361">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H111" t="n" s="1362">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I111" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
@@ -10517,13 +10514,13 @@
         <v>134</v>
       </c>
       <c r="G112" t="n" s="1361">
-        <v>-1.5460174618832232</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H112" t="n" s="1362">
-        <v>0.4434453204926454</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I112" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
@@ -10546,13 +10543,13 @@
         <v>135</v>
       </c>
       <c r="G113" t="n" s="1361">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H113" t="n" s="1362">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I113" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
@@ -10575,13 +10572,13 @@
         <v>134</v>
       </c>
       <c r="G114" t="n" s="1361">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H114" t="n" s="1362">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I114" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="115">
@@ -10604,13 +10601,13 @@
         <v>135</v>
       </c>
       <c r="G115" t="n" s="1361">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H115" t="n" s="1362">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I115" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="116">
@@ -10633,13 +10630,13 @@
         <v>135</v>
       </c>
       <c r="G116" t="n" s="1361">
-        <v>-2.0863945084249242</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H116" t="n" s="1362">
-        <v>0.4600204758925508</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I116" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="117">
@@ -10662,13 +10659,13 @@
         <v>134</v>
       </c>
       <c r="G117" t="n" s="1361">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H117" t="n" s="1362">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I117" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="118">
@@ -10691,13 +10688,13 @@
         <v>135</v>
       </c>
       <c r="G118" t="n" s="1361">
-        <v>-2.0863945084249242</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H118" t="n" s="1362">
-        <v>0.4600204758925508</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I118" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="119">
@@ -10720,13 +10717,13 @@
         <v>135</v>
       </c>
       <c r="G119" t="n" s="1361">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H119" t="n" s="1362">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I119" t="n" s="1363">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -10761,7 +10758,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1365">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -10830,40 +10827,40 @@
         <v>70</v>
       </c>
       <c r="B7" t="n" s="1407">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="n" s="1408">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D7" t="n" s="1409">
-        <v>-0.40521197501527545</v>
+        <v>-0.5725564708578639</v>
       </c>
       <c r="E7" t="n" s="1410">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F7" t="n" s="1411">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G7" t="n" s="1412">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H7" t="n" s="1413">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I7" t="n" s="1414">
-        <v>24.891907165920564</v>
+        <v>21.663126350888053</v>
       </c>
       <c r="J7" t="n" s="1415">
-        <v>-1.0981982580418819</v>
+        <v>-1.6446106201172974</v>
       </c>
       <c r="K7" t="n" s="1416">
-        <v>0.1413137673366846</v>
+        <v>0.057242399201225855</v>
       </c>
       <c r="L7" t="n" s="1417">
-        <v>-0.39363187445777426</v>
+        <v>-0.5771566050730554</v>
       </c>
       <c r="M7" t="s" s="1418">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -10874,37 +10871,37 @@
         <v>15.0</v>
       </c>
       <c r="C8" t="n" s="1408">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D8" t="n" s="1409">
-        <v>0.40521197501527545</v>
+        <v>0.5725564708578639</v>
       </c>
       <c r="E8" t="n" s="1410">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F8" t="n" s="1411">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G8" t="n" s="1412">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H8" t="n" s="1413">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I8" t="n" s="1414">
-        <v>24.891907165920564</v>
+        <v>21.663126350888053</v>
       </c>
       <c r="J8" t="n" s="1415">
-        <v>-1.0981982580418819</v>
+        <v>-1.6446106201172974</v>
       </c>
       <c r="K8" t="n" s="1416">
-        <v>0.1413137673366846</v>
+        <v>0.057242399201225855</v>
       </c>
       <c r="L8" t="n" s="1417">
-        <v>-0.39363187445777426</v>
+        <v>-0.5771566050730554</v>
       </c>
       <c r="M8" t="s" s="1418">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -10958,40 +10955,40 @@
         <v>70</v>
       </c>
       <c r="B11" t="n" s="1438">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" t="n" s="1439">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D11" t="n" s="1440">
-        <v>-0.40521197501527545</v>
+        <v>-0.5725564708578639</v>
       </c>
       <c r="E11" t="n" s="1441">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F11" t="n" s="1442">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G11" t="n" s="1443">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H11" t="n" s="1444">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I11" t="n" s="1445">
-        <v>24.891907165920564</v>
+        <v>21.663126350888053</v>
       </c>
       <c r="J11" t="n" s="1446">
-        <v>-1.0981982580418819</v>
+        <v>-1.6446106201172974</v>
       </c>
       <c r="K11" t="n" s="1447">
-        <v>0.8586862326633153</v>
+        <v>0.9427576007987741</v>
       </c>
       <c r="L11" t="n" s="1448">
-        <v>-0.39363187445777426</v>
+        <v>-0.5771566050730554</v>
       </c>
       <c r="M11" t="s" s="1449">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -11002,37 +10999,37 @@
         <v>15.0</v>
       </c>
       <c r="C12" t="n" s="1439">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D12" t="n" s="1440">
-        <v>0.40521197501527545</v>
+        <v>0.5725564708578639</v>
       </c>
       <c r="E12" t="n" s="1441">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F12" t="n" s="1442">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G12" t="n" s="1443">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H12" t="n" s="1444">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I12" t="n" s="1445">
-        <v>24.891907165920564</v>
+        <v>21.663126350888053</v>
       </c>
       <c r="J12" t="n" s="1446">
-        <v>-1.0981982580418819</v>
+        <v>-1.6446106201172974</v>
       </c>
       <c r="K12" t="n" s="1447">
-        <v>0.8586862326633153</v>
+        <v>0.9427576007987741</v>
       </c>
       <c r="L12" t="n" s="1448">
-        <v>-0.39363187445777426</v>
+        <v>-0.5771566050730554</v>
       </c>
       <c r="M12" t="s" s="1449">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -11086,40 +11083,40 @@
         <v>70</v>
       </c>
       <c r="B15" t="n" s="1469">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C15" t="n" s="1470">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D15" t="n" s="1471">
-        <v>-0.40521197501527545</v>
+        <v>-0.5725564708578639</v>
       </c>
       <c r="E15" t="n" s="1472">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F15" t="n" s="1473">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G15" t="n" s="1474">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H15" t="n" s="1475">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I15" t="n" s="1476">
-        <v>24.891907165920564</v>
+        <v>21.663126350888053</v>
       </c>
       <c r="J15" t="n" s="1477">
-        <v>-1.0981982580418819</v>
+        <v>-1.6446106201172974</v>
       </c>
       <c r="K15" t="n" s="1478">
-        <v>0.2826275346733692</v>
+        <v>0.11448479840245171</v>
       </c>
       <c r="L15" t="n" s="1479">
-        <v>-0.39363187445777426</v>
+        <v>-0.5771566050730554</v>
       </c>
       <c r="M15" t="s" s="1480">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -11130,37 +11127,37 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n" s="1470">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D16" t="n" s="1471">
-        <v>0.40521197501527545</v>
+        <v>0.5725564708578639</v>
       </c>
       <c r="E16" t="n" s="1472">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F16" t="n" s="1473">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G16" t="n" s="1474">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H16" t="n" s="1475">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I16" t="n" s="1476">
-        <v>24.891907165920564</v>
+        <v>21.663126350888053</v>
       </c>
       <c r="J16" t="n" s="1477">
-        <v>-1.0981982580418819</v>
+        <v>-1.6446106201172974</v>
       </c>
       <c r="K16" t="n" s="1478">
-        <v>0.2826275346733692</v>
+        <v>0.11448479840245171</v>
       </c>
       <c r="L16" t="n" s="1479">
-        <v>-0.39363187445777426</v>
+        <v>-0.5771566050730554</v>
       </c>
       <c r="M16" t="s" s="1480">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -11572,13 +11569,13 @@
         <v>134</v>
       </c>
       <c r="G90" t="n" s="1517">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H90" t="n" s="1518">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I90" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -11601,13 +11598,13 @@
         <v>134</v>
       </c>
       <c r="G91" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H91" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I91" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -11630,13 +11627,13 @@
         <v>134</v>
       </c>
       <c r="G92" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H92" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I92" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -11659,13 +11656,13 @@
         <v>136</v>
       </c>
       <c r="G93" t="n" s="1517">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H93" t="n" s="1518">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I93" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -11688,13 +11685,13 @@
         <v>134</v>
       </c>
       <c r="G94" t="n" s="1517">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H94" t="n" s="1518">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I94" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -11717,13 +11714,13 @@
         <v>136</v>
       </c>
       <c r="G95" t="n" s="1517">
-        <v>0.39489127659420636</v>
+        <v>0.3307476835296113</v>
       </c>
       <c r="H95" t="n" s="1518">
-        <v>0.48227608647545783</v>
+        <v>0.48658427925818015</v>
       </c>
       <c r="I95" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -11746,13 +11743,13 @@
         <v>136</v>
       </c>
       <c r="G96" t="n" s="1517">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H96" t="n" s="1518">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I96" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -11775,13 +11772,13 @@
         <v>136</v>
       </c>
       <c r="G97" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H97" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I97" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -11804,13 +11801,13 @@
         <v>134</v>
       </c>
       <c r="G98" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H98" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I98" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -11833,13 +11830,13 @@
         <v>136</v>
       </c>
       <c r="G99" t="n" s="1517">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H99" t="n" s="1518">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I99" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -11862,13 +11859,13 @@
         <v>136</v>
       </c>
       <c r="G100" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H100" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I100" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -11891,13 +11888,13 @@
         <v>134</v>
       </c>
       <c r="G101" t="n" s="1517">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H101" t="n" s="1518">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I101" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
@@ -11920,13 +11917,13 @@
         <v>134</v>
       </c>
       <c r="G102" t="n" s="1517">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H102" t="n" s="1518">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I102" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
@@ -11949,13 +11946,13 @@
         <v>134</v>
       </c>
       <c r="G103" t="n" s="1517">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H103" t="n" s="1518">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I103" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
@@ -11978,13 +11975,13 @@
         <v>134</v>
       </c>
       <c r="G104" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H104" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I104" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
@@ -12007,56 +12004,56 @@
         <v>134</v>
       </c>
       <c r="G105" t="n" s="1517">
-        <v>-1.3607329886887947</v>
+        <v>-1.5225278839917182</v>
       </c>
       <c r="H105" t="n" s="1518">
-        <v>0.45264088727971863</v>
+        <v>0.45384242527133106</v>
       </c>
       <c r="I105" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="1511">
-        <v>10200.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B106" t="n" s="1512">
-        <v>9795272.0</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C106" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D106" t="s" s="1514">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s" s="1515">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s" s="1516">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G106" t="n" s="1517">
-        <v>1.9065404060114814</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H106" t="n" s="1518">
-        <v>0.661225755407761</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I106" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="1511">
-        <v>10201.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B107" t="n" s="1512">
-        <v>1.0276928E7</v>
+        <v>1.0310471E7</v>
       </c>
       <c r="C107" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D107" t="s" s="1514">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E107" t="s" s="1515">
         <v>30</v>
@@ -12065,27 +12062,27 @@
         <v>134</v>
       </c>
       <c r="G107" t="n" s="1517">
-        <v>1.2795930062205645</v>
+        <v>2.313299396435265</v>
       </c>
       <c r="H107" t="n" s="1518">
-        <v>0.5269491771185029</v>
+        <v>0.8204623719766662</v>
       </c>
       <c r="I107" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="1511">
-        <v>10204.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B108" t="n" s="1512">
-        <v>1.0310471E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C108" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D108" t="s" s="1514">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E108" t="s" s="1515">
         <v>30</v>
@@ -12094,85 +12091,85 @@
         <v>134</v>
       </c>
       <c r="G108" t="n" s="1517">
-        <v>2.430878115710258</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H108" t="n" s="1518">
-        <v>0.8388341444082589</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I108" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="1511">
-        <v>10206.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B109" t="n" s="1512">
-        <v>1.0310721E7</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C109" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D109" t="s" s="1514">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E109" t="s" s="1515">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s" s="1516">
         <v>134</v>
       </c>
       <c r="G109" t="n" s="1517">
-        <v>-0.3588140158678748</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H109" t="n" s="1518">
-        <v>0.5140925201529228</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I109" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="1511">
-        <v>10209.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B110" t="n" s="1512">
-        <v>1.0262669E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C110" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D110" t="s" s="1514">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s" s="1515">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s" s="1516">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G110" t="n" s="1517">
-        <v>-1.1584042108881816</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H110" t="n" s="1518">
-        <v>0.4686827950943565</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I110" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="1511">
-        <v>10213.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B111" t="n" s="1512">
-        <v>1.027704E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C111" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D111" t="s" s="1514">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E111" t="s" s="1515">
         <v>30</v>
@@ -12181,114 +12178,114 @@
         <v>136</v>
       </c>
       <c r="G111" t="n" s="1517">
-        <v>1.555316756688846</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H111" t="n" s="1518">
-        <v>0.5752041012322622</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I111" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="1511">
-        <v>10215.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B112" t="n" s="1512">
-        <v>9285227.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C112" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D112" t="s" s="1514">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s" s="1515">
         <v>30</v>
       </c>
       <c r="F112" t="s" s="1516">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G112" t="n" s="1517">
-        <v>0.1681393885805358</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H112" t="n" s="1518">
-        <v>0.4914511555030068</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I112" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="1511">
-        <v>10218.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B113" t="n" s="1512">
-        <v>9842913.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C113" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D113" t="s" s="1514">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E113" t="s" s="1515">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s" s="1516">
         <v>134</v>
       </c>
       <c r="G113" t="n" s="1517">
-        <v>-1.5460174618832232</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H113" t="n" s="1518">
-        <v>0.4434453204926454</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I113" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="1511">
-        <v>10221.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B114" t="n" s="1512">
-        <v>9082496.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C114" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D114" t="s" s="1514">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E114" t="s" s="1515">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s" s="1516">
         <v>134</v>
       </c>
       <c r="G114" t="n" s="1517">
-        <v>-0.3588140158678748</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H114" t="n" s="1518">
-        <v>0.5140925201529228</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I114" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="1511">
-        <v>10223.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B115" t="n" s="1512">
-        <v>9795185.0</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C115" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D115" t="s" s="1514">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s" s="1515">
         <v>30</v>
@@ -12297,71 +12294,42 @@
         <v>134</v>
       </c>
       <c r="G115" t="n" s="1517">
-        <v>1.2795930062205645</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H115" t="n" s="1518">
-        <v>0.5269491771185029</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I115" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="1511">
-        <v>10232.0</v>
+        <v>10240.0</v>
       </c>
       <c r="B116" t="n" s="1512">
-        <v>1.0276974E7</v>
+        <v>1.0276654E7</v>
       </c>
       <c r="C116" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D116" t="s" s="1514">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s" s="1515">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s" s="1516">
         <v>134</v>
       </c>
       <c r="G116" t="n" s="1517">
-        <v>0.8224490761629756</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H116" t="n" s="1518">
-        <v>0.4844543610234488</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I116" t="n" s="1519">
-        <v>0.7953280307097791</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n" s="1511">
-        <v>10240.0</v>
-      </c>
-      <c r="B117" t="n" s="1512">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C117" t="s" s="1513">
-        <v>28</v>
-      </c>
-      <c r="D117" t="s" s="1514">
-        <v>124</v>
-      </c>
-      <c r="E117" t="s" s="1515">
-        <v>29</v>
-      </c>
-      <c r="F117" t="s" s="1516">
-        <v>134</v>
-      </c>
-      <c r="G117" t="n" s="1517">
-        <v>-0.9264124251632999</v>
-      </c>
-      <c r="H117" t="n" s="1518">
-        <v>0.4899370112419287</v>
-      </c>
-      <c r="I117" t="n" s="1519">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -12439,13 +12407,13 @@
         <v>134</v>
       </c>
       <c r="G2" t="n" s="1532">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H2" t="n" s="1533">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I2" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="3">
@@ -12468,13 +12436,13 @@
         <v>134</v>
       </c>
       <c r="G3" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H3" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I3" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="4">
@@ -12497,13 +12465,13 @@
         <v>135</v>
       </c>
       <c r="G4" t="n" s="1532">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H4" t="n" s="1533">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I4" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="5">
@@ -12526,13 +12494,13 @@
         <v>135</v>
       </c>
       <c r="G5" t="n" s="1532">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H5" t="n" s="1533">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I5" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="6">
@@ -12555,13 +12523,13 @@
         <v>134</v>
       </c>
       <c r="G6" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H6" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I6" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="7">
@@ -12584,13 +12552,13 @@
         <v>136</v>
       </c>
       <c r="G7" t="n" s="1532">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H7" t="n" s="1533">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I7" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="8">
@@ -12613,13 +12581,13 @@
         <v>134</v>
       </c>
       <c r="G8" t="n" s="1532">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H8" t="n" s="1533">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I8" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="9">
@@ -12642,13 +12610,13 @@
         <v>136</v>
       </c>
       <c r="G9" t="n" s="1532">
-        <v>0.39489127659420636</v>
+        <v>0.3307476835296113</v>
       </c>
       <c r="H9" t="n" s="1533">
-        <v>0.48227608647545783</v>
+        <v>0.48658427925818015</v>
       </c>
       <c r="I9" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="10">
@@ -12671,13 +12639,13 @@
         <v>135</v>
       </c>
       <c r="G10" t="n" s="1532">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H10" t="n" s="1533">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I10" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="11">
@@ -12700,13 +12668,13 @@
         <v>135</v>
       </c>
       <c r="G11" t="n" s="1532">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H11" t="n" s="1533">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I11" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="12">
@@ -12729,13 +12697,13 @@
         <v>136</v>
       </c>
       <c r="G12" t="n" s="1532">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H12" t="n" s="1533">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I12" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="13">
@@ -12758,13 +12726,13 @@
         <v>136</v>
       </c>
       <c r="G13" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H13" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I13" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="14">
@@ -12787,13 +12755,13 @@
         <v>135</v>
       </c>
       <c r="G14" t="n" s="1532">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H14" t="n" s="1533">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I14" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="15">
@@ -12816,13 +12784,13 @@
         <v>134</v>
       </c>
       <c r="G15" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H15" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I15" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="16">
@@ -12845,13 +12813,13 @@
         <v>135</v>
       </c>
       <c r="G16" t="n" s="1532">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H16" t="n" s="1533">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I16" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="17">
@@ -12874,13 +12842,13 @@
         <v>136</v>
       </c>
       <c r="G17" t="n" s="1532">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H17" t="n" s="1533">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I17" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="18">
@@ -12903,13 +12871,13 @@
         <v>136</v>
       </c>
       <c r="G18" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H18" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I18" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="19">
@@ -12932,13 +12900,13 @@
         <v>135</v>
       </c>
       <c r="G19" t="n" s="1532">
-        <v>1.0416617962434696</v>
+        <v>0.976849840874514</v>
       </c>
       <c r="H19" t="n" s="1533">
-        <v>0.4991231961083911</v>
+        <v>0.4967601069555859</v>
       </c>
       <c r="I19" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="20">
@@ -12961,13 +12929,13 @@
         <v>135</v>
       </c>
       <c r="G20" t="n" s="1532">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H20" t="n" s="1533">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I20" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="21">
@@ -12990,13 +12958,13 @@
         <v>134</v>
       </c>
       <c r="G21" t="n" s="1532">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H21" t="n" s="1533">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I21" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="22">
@@ -13019,13 +12987,13 @@
         <v>134</v>
       </c>
       <c r="G22" t="n" s="1532">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H22" t="n" s="1533">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I22" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="23">
@@ -13048,13 +13016,13 @@
         <v>134</v>
       </c>
       <c r="G23" t="n" s="1532">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H23" t="n" s="1533">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I23" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="24">
@@ -13077,13 +13045,13 @@
         <v>134</v>
       </c>
       <c r="G24" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H24" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I24" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="25">
@@ -13106,85 +13074,85 @@
         <v>134</v>
       </c>
       <c r="G25" t="n" s="1532">
-        <v>-1.3607329886887947</v>
+        <v>-1.5225278839917182</v>
       </c>
       <c r="H25" t="n" s="1533">
-        <v>0.45264088727971863</v>
+        <v>0.45384242527133106</v>
       </c>
       <c r="I25" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="1526">
-        <v>10200.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B26" t="n" s="1527">
-        <v>9795272.0</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C26" t="s" s="1528">
         <v>28</v>
       </c>
       <c r="D26" t="s" s="1529">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s" s="1531">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G26" t="n" s="1532">
-        <v>1.9065404060114814</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H26" t="n" s="1533">
-        <v>0.661225755407761</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I26" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="1526">
-        <v>10201.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B27" t="n" s="1527">
-        <v>1.0276928E7</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C27" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s" s="1529">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s" s="1531">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" t="n" s="1532">
-        <v>1.2795930062205645</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H27" t="n" s="1533">
-        <v>0.5269491771185029</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I27" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="1526">
-        <v>10202.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B28" t="n" s="1527">
-        <v>1.0277036E7</v>
+        <v>9921470.0</v>
       </c>
       <c r="C28" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D28" t="s" s="1529">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s" s="1530">
         <v>29</v>
@@ -13193,56 +13161,56 @@
         <v>135</v>
       </c>
       <c r="G28" t="n" s="1532">
-        <v>-0.6543326517017414</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H28" t="n" s="1533">
-        <v>0.5092799511321389</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I28" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="1526">
-        <v>10203.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B29" t="n" s="1527">
-        <v>9921470.0</v>
+        <v>1.0310471E7</v>
       </c>
       <c r="C29" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s" s="1529">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s" s="1531">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" t="n" s="1532">
-        <v>0.8224490761629756</v>
+        <v>2.313299396435265</v>
       </c>
       <c r="H29" t="n" s="1533">
-        <v>0.4844543610234488</v>
+        <v>0.8204623719766662</v>
       </c>
       <c r="I29" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="1526">
-        <v>10204.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B30" t="n" s="1527">
-        <v>1.0310471E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C30" t="s" s="1528">
         <v>28</v>
       </c>
       <c r="D30" t="s" s="1529">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s" s="1530">
         <v>30</v>
@@ -13251,143 +13219,143 @@
         <v>134</v>
       </c>
       <c r="G30" t="n" s="1532">
-        <v>2.430878115710258</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H30" t="n" s="1533">
-        <v>0.8388341444082589</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I30" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="1526">
-        <v>10206.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B31" t="n" s="1527">
-        <v>1.0310721E7</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C31" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s" s="1529">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s" s="1531">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" t="n" s="1532">
-        <v>-0.3588140158678748</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H31" t="n" s="1533">
-        <v>0.5140925201529228</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I31" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="1526">
-        <v>10208.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B32" t="n" s="1527">
-        <v>1.0276932E7</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C32" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s" s="1529">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s" s="1530">
         <v>29</v>
       </c>
       <c r="F32" t="s" s="1531">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" t="n" s="1532">
-        <v>1.555316756688846</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H32" t="n" s="1533">
-        <v>0.5752041012322622</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I32" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="1526">
-        <v>10209.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B33" t="n" s="1527">
-        <v>1.0262669E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C33" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s" s="1529">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s" s="1530">
         <v>29</v>
       </c>
       <c r="F33" t="s" s="1531">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" t="n" s="1532">
-        <v>-1.1584042108881816</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H33" t="n" s="1533">
-        <v>0.4686827950943565</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I33" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="1526">
-        <v>10210.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B34" t="n" s="1527">
-        <v>1.0277015E7</v>
+        <v>9311643.0</v>
       </c>
       <c r="C34" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D34" t="s" s="1529">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G34" t="n" s="1532">
-        <v>-0.3588140158678748</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H34" t="n" s="1533">
-        <v>0.5140925201529228</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I34" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="1526">
-        <v>10211.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B35" t="n" s="1527">
-        <v>9311643.0</v>
+        <v>9065750.0</v>
       </c>
       <c r="C35" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D35" t="s" s="1529">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s" s="1530">
         <v>30</v>
@@ -13396,143 +13364,143 @@
         <v>135</v>
       </c>
       <c r="G35" t="n" s="1532">
-        <v>1.555316756688846</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H35" t="n" s="1533">
-        <v>0.5752041012322622</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I35" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="1526">
-        <v>10212.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B36" t="n" s="1527">
-        <v>9065750.0</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C36" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s" s="1529">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F36" t="s" s="1531">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G36" t="n" s="1532">
-        <v>1.2795930062205645</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H36" t="n" s="1533">
-        <v>0.5269491771185029</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I36" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="1526">
-        <v>10213.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B37" t="n" s="1527">
-        <v>1.027704E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C37" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s" s="1529">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F37" t="s" s="1531">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" t="n" s="1532">
-        <v>1.555316756688846</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H37" t="n" s="1533">
-        <v>0.5752041012322622</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I37" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="1526">
-        <v>10214.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B38" t="n" s="1527">
-        <v>1.0277022E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C38" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s" s="1529">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F38" t="s" s="1531">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G38" t="n" s="1532">
-        <v>-1.5460174618832232</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H38" t="n" s="1533">
-        <v>0.4434453204926454</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I38" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="1526">
-        <v>10215.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B39" t="n" s="1527">
-        <v>9285227.0</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C39" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s" s="1529">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F39" t="s" s="1531">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" t="n" s="1532">
-        <v>0.1681393885805358</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H39" t="n" s="1533">
-        <v>0.4914511555030068</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I39" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="1526">
-        <v>10216.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B40" t="n" s="1527">
-        <v>1.027672E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C40" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D40" t="s" s="1529">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s" s="1530">
         <v>30</v>
@@ -13541,259 +13509,259 @@
         <v>135</v>
       </c>
       <c r="G40" t="n" s="1532">
-        <v>-0.3588140158678748</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H40" t="n" s="1533">
-        <v>0.5140925201529228</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I40" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="1526">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B41" t="n" s="1527">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C41" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s" s="1529">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F41" t="s" s="1531">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G41" t="n" s="1532">
-        <v>-1.1584042108881816</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H41" t="n" s="1533">
-        <v>0.4686827950943565</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I41" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="1526">
-        <v>10218.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B42" t="n" s="1527">
-        <v>9842913.0</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C42" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s" s="1529">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F42" t="s" s="1531">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" t="n" s="1532">
-        <v>-1.5460174618832232</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H42" t="n" s="1533">
-        <v>0.4434453204926454</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I42" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="1526">
-        <v>10219.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B43" t="n" s="1527">
-        <v>1.0276831E7</v>
+        <v>9760151.0</v>
       </c>
       <c r="C43" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D43" t="s" s="1529">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G43" t="n" s="1532">
-        <v>-0.9264124251632999</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H43" t="n" s="1533">
-        <v>0.4899370112419287</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I43" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="1526">
-        <v>10220.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B44" t="n" s="1527">
-        <v>9760151.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C44" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s" s="1529">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s" s="1530">
         <v>29</v>
       </c>
       <c r="F44" t="s" s="1531">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" t="n" s="1532">
-        <v>0.8224490761629756</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H44" t="n" s="1533">
-        <v>0.4844543610234488</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I44" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="1526">
-        <v>10221.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B45" t="n" s="1527">
-        <v>9082496.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C45" t="s" s="1528">
         <v>28</v>
       </c>
       <c r="D45" t="s" s="1529">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s" s="1531">
         <v>134</v>
       </c>
       <c r="G45" t="n" s="1532">
-        <v>-0.3588140158678748</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H45" t="n" s="1533">
-        <v>0.5140925201529228</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I45" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="1526">
-        <v>10223.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B46" t="n" s="1527">
-        <v>9795185.0</v>
+        <v>9368772.0</v>
       </c>
       <c r="C46" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s" s="1529">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s" s="1531">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" t="n" s="1532">
-        <v>1.2795930062205645</v>
+        <v>1.8149342572625908</v>
       </c>
       <c r="H46" t="n" s="1533">
-        <v>0.5269491771185029</v>
+        <v>0.6498486577137698</v>
       </c>
       <c r="I46" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="1526">
-        <v>10224.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B47" t="n" s="1527">
-        <v>9368772.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C47" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D47" t="s" s="1529">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G47" t="n" s="1532">
-        <v>1.9065404060114814</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H47" t="n" s="1533">
-        <v>0.661225755407761</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I47" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="1526">
-        <v>10226.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B48" t="n" s="1527">
-        <v>1.0310342E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C48" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D48" t="s" s="1529">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G48" t="n" s="1532">
-        <v>-0.9264124251632999</v>
+        <v>-2.428716568029001</v>
       </c>
       <c r="H48" t="n" s="1533">
-        <v>0.4899370112419287</v>
+        <v>0.47754477160855874</v>
       </c>
       <c r="I48" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="1526">
-        <v>10227.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B49" t="n" s="1527">
-        <v>9274382.0</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C49" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D49" t="s" s="1529">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s" s="1530">
         <v>29</v>
@@ -13802,21 +13770,21 @@
         <v>135</v>
       </c>
       <c r="G49" t="n" s="1532">
-        <v>-2.286960722554974</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H49" t="n" s="1533">
-        <v>0.48458789472867325</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I49" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="1526">
-        <v>10228.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B50" t="n" s="1527">
-        <v>1.0310492E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C50" t="s" s="1528">
         <v>27</v>
@@ -13825,120 +13793,120 @@
         <v>132</v>
       </c>
       <c r="E50" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G50" t="n" s="1532">
-        <v>-0.6543326517017414</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H50" t="n" s="1533">
-        <v>0.5092799511321389</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I50" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="1526">
-        <v>10230.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B51" t="n" s="1527">
-        <v>1.0351992E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C51" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s" s="1529">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s" s="1530">
         <v>30</v>
       </c>
       <c r="F51" t="s" s="1531">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" t="n" s="1532">
-        <v>-2.0863945084249242</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H51" t="n" s="1533">
-        <v>0.4600204758925508</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I51" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="1526">
-        <v>10232.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B52" t="n" s="1527">
-        <v>1.0276974E7</v>
+        <v>9805320.0</v>
       </c>
       <c r="C52" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s" s="1529">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s" s="1531">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G52" t="n" s="1532">
-        <v>0.8224490761629756</v>
+        <v>-1.8810364248477331</v>
       </c>
       <c r="H52" t="n" s="1533">
-        <v>0.4844543610234488</v>
+        <v>0.43844122679500463</v>
       </c>
       <c r="I52" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="1526">
-        <v>10233.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B53" t="n" s="1527">
-        <v>9805320.0</v>
+        <v>1.0310676E7</v>
       </c>
       <c r="C53" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D53" t="s" s="1529">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s" s="1530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G53" t="n" s="1532">
-        <v>-1.723758728491708</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H53" t="n" s="1533">
-        <v>0.4412765460507782</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I53" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="1526">
-        <v>10234.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B54" t="n" s="1527">
-        <v>1.0310676E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C54" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D54" t="s" s="1529">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s" s="1530">
         <v>30</v>
@@ -13947,100 +13915,71 @@
         <v>135</v>
       </c>
       <c r="G54" t="n" s="1532">
-        <v>-2.0863945084249242</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H54" t="n" s="1533">
-        <v>0.4600204758925508</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I54" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="1526">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B55" t="n" s="1527">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C55" t="s" s="1528">
         <v>27</v>
       </c>
       <c r="D55" t="s" s="1529">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s" s="1530">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s" s="1531">
         <v>135</v>
       </c>
       <c r="G55" t="n" s="1532">
-        <v>-0.0803884874726979</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H55" t="n" s="1533">
-        <v>0.5043580861250034</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I55" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="1526">
-        <v>10238.0</v>
+        <v>10240.0</v>
       </c>
       <c r="B56" t="n" s="1527">
-        <v>1.0276953E7</v>
+        <v>1.0276654E7</v>
       </c>
       <c r="C56" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s" s="1529">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E56" t="s" s="1530">
         <v>29</v>
       </c>
       <c r="F56" t="s" s="1531">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G56" t="n" s="1532">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H56" t="n" s="1533">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I56" t="n" s="1534">
-        <v>0.7953280307097791</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="1526">
-        <v>10240.0</v>
-      </c>
-      <c r="B57" t="n" s="1527">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C57" t="s" s="1528">
-        <v>28</v>
-      </c>
-      <c r="D57" t="s" s="1529">
-        <v>124</v>
-      </c>
-      <c r="E57" t="s" s="1530">
-        <v>29</v>
-      </c>
-      <c r="F57" t="s" s="1531">
-        <v>134</v>
-      </c>
-      <c r="G57" t="n" s="1532">
-        <v>-0.9264124251632999</v>
-      </c>
-      <c r="H57" t="n" s="1533">
-        <v>0.4899370112419287</v>
-      </c>
-      <c r="I57" t="n" s="1534">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -14092,10 +14031,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="101">
-        <v>0.9788624045996758</v>
+        <v>0.9791729932381583</v>
       </c>
       <c r="B6" t="n" s="102">
-        <v>0.4286201329962016</v>
+        <v>0.4533414599935963</v>
       </c>
     </row>
     <row r="7">
@@ -14309,15 +14248,15 @@
         <v>3.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>1.4661459159646866</v>
+        <v>2.1264574238981337</v>
       </c>
       <c r="C47" t="n" s="135">
-        <v>0.23449953428076492</v>
+        <v>0.10831545611147989</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B48" s="134"/>
       <c r="C48" s="135"/>
@@ -15207,7 +15146,7 @@
         <v>29</v>
       </c>
       <c r="C222" t="n" s="168">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="223">
@@ -15410,16 +15349,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="n" s="225">
-        <v>0.3886541662921628</v>
+        <v>0.3416790537616938</v>
       </c>
       <c r="C6" t="n" s="226">
-        <v>-0.21629920592076374</v>
+        <v>-0.27179197886370104</v>
       </c>
       <c r="D6" t="n" s="227">
-        <v>0.9936075385050893</v>
+        <v>0.9551500863870885</v>
       </c>
       <c r="E6" t="n" s="228">
-        <v>0.20304209478027668</v>
+        <v>0.2687446260953784</v>
       </c>
     </row>
     <row r="7">
@@ -15457,16 +15396,16 @@
         <v>47</v>
       </c>
       <c r="B11" t="n" s="247">
-        <v>-0.044394250680359924</v>
+        <v>0.022196555195150097</v>
       </c>
       <c r="C11" t="n" s="248">
-        <v>-0.6508968017991461</v>
+        <v>-0.5937234733259494</v>
       </c>
       <c r="D11" t="n" s="249">
-        <v>0.5621083004384262</v>
+        <v>0.6381165837162496</v>
       </c>
       <c r="E11" t="n" s="250">
-        <v>0.883794095782848</v>
+        <v>0.9426068487376015</v>
       </c>
     </row>
     <row r="12">
@@ -15504,16 +15443,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n" s="269">
-        <v>-0.09306678981030411</v>
+        <v>-0.246743477641655</v>
       </c>
       <c r="C16" t="n" s="270">
-        <v>-1.2673568720321011</v>
+        <v>-1.4512364170414198</v>
       </c>
       <c r="D16" t="n" s="271">
-        <v>1.0812232924114928</v>
+        <v>0.9577494617581097</v>
       </c>
       <c r="E16" t="n" s="272">
-        <v>0.996668077810495</v>
+        <v>0.9477295174058523</v>
       </c>
     </row>
     <row r="17">
@@ -15521,16 +15460,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n" s="269">
-        <v>-0.49400047637599565</v>
+        <v>-0.5046264592114296</v>
       </c>
       <c r="C17" t="n" s="270">
-        <v>-1.6284724757619848</v>
+        <v>-1.644766671638498</v>
       </c>
       <c r="D17" t="n" s="271">
-        <v>0.6404715230099934</v>
+        <v>0.635513753215639</v>
       </c>
       <c r="E17" t="n" s="272">
-        <v>0.6570636028402992</v>
+        <v>0.6449019328826996</v>
       </c>
     </row>
     <row r="18">
@@ -15538,16 +15477,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n" s="269">
-        <v>0.31214518520497175</v>
+        <v>0.32581299321620855</v>
       </c>
       <c r="C18" t="n" s="270">
-        <v>-0.8223268141810174</v>
+        <v>-0.8143272192108599</v>
       </c>
       <c r="D18" t="n" s="271">
-        <v>1.4466171845909608</v>
+        <v>1.4659532056432771</v>
       </c>
       <c r="E18" t="n" s="272">
-        <v>0.8845084104552244</v>
+        <v>0.872410925493879</v>
       </c>
     </row>
     <row r="19">
@@ -15555,16 +15494,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n" s="269">
-        <v>-0.4009336865656915</v>
+        <v>-0.2578829815697745</v>
       </c>
       <c r="C19" t="n" s="270">
-        <v>-1.5354056859516807</v>
+        <v>-1.4231948855833723</v>
       </c>
       <c r="D19" t="n" s="271">
-        <v>0.7335383128202976</v>
+        <v>0.9074289224438232</v>
       </c>
       <c r="E19" t="n" s="272">
-        <v>0.7846125846980554</v>
+        <v>0.935341217538984</v>
       </c>
     </row>
     <row r="20">
@@ -15572,16 +15511,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n" s="269">
-        <v>0.4052119750152759</v>
+        <v>0.5725564708578635</v>
       </c>
       <c r="C20" t="n" s="270">
-        <v>-0.7292600243707132</v>
+        <v>-0.5927554331557342</v>
       </c>
       <c r="D20" t="n" s="271">
-        <v>1.539683974401265</v>
+        <v>1.7378683748714612</v>
       </c>
       <c r="E20" t="n" s="272">
-        <v>0.7791563835310779</v>
+        <v>0.5641246692929816</v>
       </c>
     </row>
     <row r="21">
@@ -15589,16 +15528,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n" s="269">
-        <v>0.8061456615809675</v>
+        <v>0.8304394524276381</v>
       </c>
       <c r="C21" t="n" s="270">
-        <v>-0.28705891102985515</v>
+        <v>-0.2682271469395915</v>
       </c>
       <c r="D21" t="n" s="271">
-        <v>1.89935023419179</v>
+        <v>1.9291060517948675</v>
       </c>
       <c r="E21" t="n" s="272">
-        <v>0.21749273881104358</v>
+        <v>0.19873003687287727</v>
       </c>
     </row>
     <row r="22">
@@ -15641,19 +15580,19 @@
         <v>61</v>
       </c>
       <c r="B26" t="n" s="292">
-        <v>-0.35653943588533177</v>
+        <v>-0.2918479873929915</v>
       </c>
       <c r="C26" t="n" s="293">
-        <v>0.30224678781363806</v>
+        <v>0.3069307366588845</v>
       </c>
       <c r="D26" t="n" s="294">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="E26" t="n" s="295">
-        <v>-1.1796301904957545</v>
+        <v>-0.9508594367899504</v>
       </c>
       <c r="F26" t="n" s="296">
-        <v>0.2435161232510741</v>
+        <v>0.34616035642709175</v>
       </c>
     </row>
     <row r="27">
@@ -15702,19 +15641,19 @@
         <v>29</v>
       </c>
       <c r="C31" t="n" s="317">
-        <v>0.09306678981030397</v>
+        <v>0.246743477641655</v>
       </c>
       <c r="D31" t="n" s="318">
-        <v>0.4424439934136838</v>
+        <v>0.4535316946454345</v>
       </c>
       <c r="E31" t="n" s="319">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="F31" t="n" s="320">
-        <v>0.21034705227264056</v>
+        <v>0.5440490280057626</v>
       </c>
       <c r="G31" t="n" s="321">
-        <v>0.8342188763436789</v>
+        <v>0.5887784570515853</v>
       </c>
     </row>
     <row r="32">
@@ -15725,19 +15664,19 @@
         <v>30</v>
       </c>
       <c r="C32" t="n" s="317">
-        <v>-0.8061456615809675</v>
+        <v>-0.830439452427638</v>
       </c>
       <c r="D32" t="n" s="318">
-        <v>0.4118929419968271</v>
+        <v>0.41368455419063255</v>
       </c>
       <c r="E32" t="n" s="319">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="F32" t="n" s="320">
-        <v>-1.957172797554704</v>
+        <v>-2.0074219450914232</v>
       </c>
       <c r="G32" t="n" s="321">
-        <v>0.055705172915283686</v>
+        <v>0.05001778610581637</v>
       </c>
     </row>
     <row r="33">
@@ -15783,19 +15722,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="n" s="341">
-        <v>-0.19448322043779714</v>
+        <v>-0.3065130188074716</v>
       </c>
       <c r="C37" t="n" s="342">
-        <v>0.21372075325487497</v>
+        <v>0.21465037517494107</v>
       </c>
       <c r="D37" t="n" s="343">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="E37" t="n" s="344">
-        <v>-0.6233452871320693</v>
+        <v>-0.7374416283008884</v>
       </c>
       <c r="F37" t="n" s="345">
-        <v>0.23437884625647504</v>
+        <v>0.12441559068594527</v>
       </c>
       <c r="G37" t="s" s="346">
         <v>27</v>
@@ -15806,19 +15745,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="n" s="341">
-        <v>0.16205621544753462</v>
+        <v>-0.01466503141448014</v>
       </c>
       <c r="C38" t="n" s="342">
-        <v>0.21372075325487497</v>
+        <v>0.21938936515524757</v>
       </c>
       <c r="D38" t="n" s="343">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="E38" t="n" s="344">
-        <v>-0.26680585124673756</v>
+        <v>-0.4551075602800497</v>
       </c>
       <c r="F38" t="n" s="345">
-        <v>0.5909182821418069</v>
+        <v>0.4257774974510894</v>
       </c>
       <c r="G38" t="s" s="346">
         <v>28</v>
@@ -15873,19 +15812,19 @@
         <v>29</v>
       </c>
       <c r="C43" t="n" s="367">
-        <v>0.05251701775020071</v>
+        <v>-0.0541997892017569</v>
       </c>
       <c r="D43" t="n" s="368">
-        <v>0.3128551480380719</v>
+        <v>0.31421597518748257</v>
       </c>
       <c r="E43" t="n" s="369">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="F43" t="n" s="370">
-        <v>-0.5752727655074977</v>
+        <v>-0.6850146813621103</v>
       </c>
       <c r="G43" t="n" s="371">
-        <v>0.6803068010078991</v>
+        <v>0.5766151029585964</v>
       </c>
       <c r="H43" t="s" s="372">
         <v>69</v>
@@ -15899,19 +15838,19 @@
         <v>29</v>
       </c>
       <c r="C44" t="n" s="367">
-        <v>-0.04054977206010326</v>
+        <v>-0.3009432668434119</v>
       </c>
       <c r="D44" t="n" s="368">
-        <v>0.3128551480380719</v>
+        <v>0.3270463560184381</v>
       </c>
       <c r="E44" t="n" s="369">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="F44" t="n" s="370">
-        <v>-0.6683395553178016</v>
+        <v>-0.9575162233269631</v>
       </c>
       <c r="G44" t="n" s="371">
-        <v>0.5872400111975952</v>
+        <v>0.3556296896401393</v>
       </c>
       <c r="H44" t="s" s="372">
         <v>70</v>
@@ -15925,19 +15864,19 @@
         <v>30</v>
       </c>
       <c r="C45" t="n" s="367">
-        <v>-0.44148345862579497</v>
+        <v>-0.5588262484131864</v>
       </c>
       <c r="D45" t="n" s="368">
-        <v>0.2912522924088336</v>
+        <v>0.2925191535403301</v>
       </c>
       <c r="E45" t="n" s="369">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="F45" t="n" s="370">
-        <v>-1.0259239406548735</v>
+        <v>-1.1460829535672792</v>
       </c>
       <c r="G45" t="n" s="371">
-        <v>0.14295702340328353</v>
+        <v>0.028430456740906385</v>
       </c>
       <c r="H45" t="s" s="372">
         <v>71</v>
@@ -15951,19 +15890,19 @@
         <v>30</v>
       </c>
       <c r="C46" t="n" s="367">
-        <v>0.36466220295517254</v>
+        <v>0.2716132040144516</v>
       </c>
       <c r="D46" t="n" s="368">
-        <v>0.2912522924088336</v>
+        <v>0.2925191535403301</v>
       </c>
       <c r="E46" t="n" s="369">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="F46" t="n" s="370">
-        <v>-0.21977827907390596</v>
+        <v>-0.3156435011396412</v>
       </c>
       <c r="G46" t="n" s="371">
-        <v>0.949102684984251</v>
+        <v>0.8588699091685443</v>
       </c>
       <c r="H46" t="s" s="372">
         <v>72</v>
@@ -16508,34 +16447,34 @@
         <v>15.0</v>
       </c>
       <c r="C6" t="n" s="417">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D6" t="n" s="418">
-        <v>-0.806145661580967</v>
+        <v>-0.8304394524276384</v>
       </c>
       <c r="E6" t="n" s="419">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F6" t="n" s="420">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G6" t="n" s="421">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H6" t="n" s="422">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I6" t="n" s="423">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J6" t="n" s="424">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K6" t="n" s="425">
-        <v>0.03199750044628873</v>
+        <v>0.031494087437973405</v>
       </c>
       <c r="L6" t="n" s="426">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M6" t="s" s="427">
         <v>87</v>
@@ -16549,34 +16488,34 @@
         <v>15.0</v>
       </c>
       <c r="C7" t="n" s="417">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D7" t="n" s="418">
-        <v>0.806145661580967</v>
+        <v>0.8304394524276384</v>
       </c>
       <c r="E7" t="n" s="419">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F7" t="n" s="420">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G7" t="n" s="421">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H7" t="n" s="422">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I7" t="n" s="423">
-        <v>27.999760868579326</v>
+        <v>27.99921804954557</v>
       </c>
       <c r="J7" t="n" s="424">
-        <v>-1.9284485513029817</v>
+        <v>-1.9362701384758418</v>
       </c>
       <c r="K7" t="n" s="425">
-        <v>0.03199750044628873</v>
+        <v>0.031494087437973405</v>
       </c>
       <c r="L7" t="n" s="426">
-        <v>-0.6851382308346822</v>
+        <v>-0.6879170803893213</v>
       </c>
       <c r="M7" t="s" s="427">
         <v>87</v>
@@ -16685,34 +16624,34 @@
         <v>28.0</v>
       </c>
       <c r="C7" t="n" s="472">
-        <v>-0.21212609459408258</v>
+        <v>-0.3245353923507369</v>
       </c>
       <c r="D7" t="n" s="473">
-        <v>-0.38865416629216265</v>
+        <v>-0.3416790537616937</v>
       </c>
       <c r="E7" t="n" s="474">
-        <v>1.2456538328107103</v>
+        <v>1.2779899639448202</v>
       </c>
       <c r="F7" t="n" s="475">
-        <v>0.23540644723511206</v>
+        <v>0.24151740161674262</v>
       </c>
       <c r="G7" t="n" s="476">
-        <v>-0.6829389890643067</v>
+        <v>-0.8075701955842222</v>
       </c>
       <c r="H7" t="n" s="477">
-        <v>0.2586867998761415</v>
+        <v>0.15849941088274833</v>
       </c>
       <c r="I7" t="n" s="478">
-        <v>51.63145315175339</v>
+        <v>50.61648542511443</v>
       </c>
       <c r="J7" t="n" s="479">
-        <v>-1.2863879004596661</v>
+        <v>-1.1120759589942555</v>
       </c>
       <c r="K7" t="n" s="480">
-        <v>0.1020231081037206</v>
+        <v>0.13567981395404552</v>
       </c>
       <c r="L7" t="n" s="481">
-        <v>-0.3390043958413436</v>
+        <v>-0.2943073241992384</v>
       </c>
       <c r="M7" t="s" s="482">
         <v>91</v>
@@ -16723,37 +16662,37 @@
         <v>28</v>
       </c>
       <c r="B8" t="n" s="471">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C8" t="n" s="472">
-        <v>0.1765280716980801</v>
+        <v>0.017143661410956777</v>
       </c>
       <c r="D8" t="n" s="473">
-        <v>0.38865416629216265</v>
+        <v>0.3416790537616937</v>
       </c>
       <c r="E8" t="n" s="474">
-        <v>1.0021120166845647</v>
+        <v>0.9868372371820661</v>
       </c>
       <c r="F8" t="n" s="475">
-        <v>0.1893813701411977</v>
+        <v>0.1899169148444708</v>
       </c>
       <c r="G8" t="n" s="476">
-        <v>-0.20223466858431532</v>
+        <v>-0.3626901682779848</v>
       </c>
       <c r="H8" t="n" s="477">
-        <v>0.5552908119804756</v>
+        <v>0.3969774910998984</v>
       </c>
       <c r="I8" t="n" s="478">
-        <v>51.63145315175339</v>
+        <v>50.61648542511443</v>
       </c>
       <c r="J8" t="n" s="479">
-        <v>-1.2863879004596661</v>
+        <v>-1.1120759589942555</v>
       </c>
       <c r="K8" t="n" s="480">
-        <v>0.1020231081037206</v>
+        <v>0.13567981395404552</v>
       </c>
       <c r="L8" t="n" s="481">
-        <v>-0.3390043958413436</v>
+        <v>-0.2943073241992384</v>
       </c>
       <c r="M8" t="s" s="482">
         <v>91</v>
@@ -16813,34 +16752,34 @@
         <v>28.0</v>
       </c>
       <c r="C11" t="n" s="503">
-        <v>-0.21212609459408258</v>
+        <v>-0.3245353923507369</v>
       </c>
       <c r="D11" t="n" s="504">
-        <v>-0.38865416629216265</v>
+        <v>-0.3416790537616937</v>
       </c>
       <c r="E11" t="n" s="505">
-        <v>1.2456538328107103</v>
+        <v>1.2779899639448202</v>
       </c>
       <c r="F11" t="n" s="506">
-        <v>0.23540644723511206</v>
+        <v>0.24151740161674262</v>
       </c>
       <c r="G11" t="n" s="507">
-        <v>-0.6829389890643067</v>
+        <v>-0.8075701955842222</v>
       </c>
       <c r="H11" t="n" s="508">
-        <v>0.2586867998761415</v>
+        <v>0.15849941088274833</v>
       </c>
       <c r="I11" t="n" s="509">
-        <v>51.63145315175339</v>
+        <v>50.61648542511443</v>
       </c>
       <c r="J11" t="n" s="510">
-        <v>-1.2863879004596661</v>
+        <v>-1.1120759589942555</v>
       </c>
       <c r="K11" t="n" s="511">
-        <v>0.8979768918962794</v>
+        <v>0.8643201860459545</v>
       </c>
       <c r="L11" t="n" s="512">
-        <v>-0.3390043958413436</v>
+        <v>-0.2943073241992384</v>
       </c>
       <c r="M11" t="s" s="513">
         <v>91</v>
@@ -16851,37 +16790,37 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="502">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C12" t="n" s="503">
-        <v>0.1765280716980801</v>
+        <v>0.017143661410956777</v>
       </c>
       <c r="D12" t="n" s="504">
-        <v>0.38865416629216265</v>
+        <v>0.3416790537616937</v>
       </c>
       <c r="E12" t="n" s="505">
-        <v>1.0021120166845647</v>
+        <v>0.9868372371820661</v>
       </c>
       <c r="F12" t="n" s="506">
-        <v>0.1893813701411977</v>
+        <v>0.1899169148444708</v>
       </c>
       <c r="G12" t="n" s="507">
-        <v>-0.20223466858431532</v>
+        <v>-0.3626901682779848</v>
       </c>
       <c r="H12" t="n" s="508">
-        <v>0.5552908119804756</v>
+        <v>0.3969774910998984</v>
       </c>
       <c r="I12" t="n" s="509">
-        <v>51.63145315175339</v>
+        <v>50.61648542511443</v>
       </c>
       <c r="J12" t="n" s="510">
-        <v>-1.2863879004596661</v>
+        <v>-1.1120759589942555</v>
       </c>
       <c r="K12" t="n" s="511">
-        <v>0.8979768918962794</v>
+        <v>0.8643201860459545</v>
       </c>
       <c r="L12" t="n" s="512">
-        <v>-0.3390043958413436</v>
+        <v>-0.2943073241992384</v>
       </c>
       <c r="M12" t="s" s="513">
         <v>91</v>
@@ -16941,34 +16880,34 @@
         <v>28.0</v>
       </c>
       <c r="C15" t="n" s="534">
-        <v>-0.21212609459408258</v>
+        <v>-0.3245353923507369</v>
       </c>
       <c r="D15" t="n" s="535">
-        <v>-0.38865416629216265</v>
+        <v>-0.3416790537616937</v>
       </c>
       <c r="E15" t="n" s="536">
-        <v>1.2456538328107103</v>
+        <v>1.2779899639448202</v>
       </c>
       <c r="F15" t="n" s="537">
-        <v>0.23540644723511206</v>
+        <v>0.24151740161674262</v>
       </c>
       <c r="G15" t="n" s="538">
-        <v>-0.6829389890643067</v>
+        <v>-0.8075701955842222</v>
       </c>
       <c r="H15" t="n" s="539">
-        <v>0.2586867998761415</v>
+        <v>0.15849941088274833</v>
       </c>
       <c r="I15" t="n" s="540">
-        <v>51.63145315175339</v>
+        <v>50.61648542511443</v>
       </c>
       <c r="J15" t="n" s="541">
-        <v>-1.2863879004596661</v>
+        <v>-1.1120759589942555</v>
       </c>
       <c r="K15" t="n" s="542">
-        <v>0.2040462162074412</v>
+        <v>0.27135962790809104</v>
       </c>
       <c r="L15" t="n" s="543">
-        <v>-0.3390043958413436</v>
+        <v>-0.2943073241992384</v>
       </c>
       <c r="M15" t="s" s="544">
         <v>91</v>
@@ -16979,37 +16918,37 @@
         <v>28</v>
       </c>
       <c r="B16" t="n" s="533">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C16" t="n" s="534">
-        <v>0.1765280716980801</v>
+        <v>0.017143661410956777</v>
       </c>
       <c r="D16" t="n" s="535">
-        <v>0.38865416629216265</v>
+        <v>0.3416790537616937</v>
       </c>
       <c r="E16" t="n" s="536">
-        <v>1.0021120166845647</v>
+        <v>0.9868372371820661</v>
       </c>
       <c r="F16" t="n" s="537">
-        <v>0.1893813701411977</v>
+        <v>0.1899169148444708</v>
       </c>
       <c r="G16" t="n" s="538">
-        <v>-0.20223466858431532</v>
+        <v>-0.3626901682779848</v>
       </c>
       <c r="H16" t="n" s="539">
-        <v>0.5552908119804756</v>
+        <v>0.3969774910998984</v>
       </c>
       <c r="I16" t="n" s="540">
-        <v>51.63145315175339</v>
+        <v>50.61648542511443</v>
       </c>
       <c r="J16" t="n" s="541">
-        <v>-1.2863879004596661</v>
+        <v>-1.1120759589942555</v>
       </c>
       <c r="K16" t="n" s="542">
-        <v>0.2040462162074412</v>
+        <v>0.27135962790809104</v>
       </c>
       <c r="L16" t="n" s="543">
-        <v>-0.3390043958413436</v>
+        <v>-0.2943073241992384</v>
       </c>
       <c r="M16" t="s" s="544">
         <v>91</v>
@@ -17424,13 +17363,13 @@
         <v>134</v>
       </c>
       <c r="G90" t="n" s="581">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H90" t="n" s="582">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I90" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -17453,13 +17392,13 @@
         <v>134</v>
       </c>
       <c r="G91" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H91" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I91" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -17482,13 +17421,13 @@
         <v>135</v>
       </c>
       <c r="G92" t="n" s="581">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H92" t="n" s="582">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I92" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -17511,13 +17450,13 @@
         <v>135</v>
       </c>
       <c r="G93" t="n" s="581">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H93" t="n" s="582">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I93" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -17540,13 +17479,13 @@
         <v>134</v>
       </c>
       <c r="G94" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H94" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I94" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -17569,13 +17508,13 @@
         <v>136</v>
       </c>
       <c r="G95" t="n" s="581">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H95" t="n" s="582">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I95" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -17598,13 +17537,13 @@
         <v>134</v>
       </c>
       <c r="G96" t="n" s="581">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H96" t="n" s="582">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I96" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -17627,13 +17566,13 @@
         <v>136</v>
       </c>
       <c r="G97" t="n" s="581">
-        <v>0.39489127659420636</v>
+        <v>0.3307476835296113</v>
       </c>
       <c r="H97" t="n" s="582">
-        <v>0.48227608647545783</v>
+        <v>0.48658427925818015</v>
       </c>
       <c r="I97" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -17656,13 +17595,13 @@
         <v>135</v>
       </c>
       <c r="G98" t="n" s="581">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H98" t="n" s="582">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I98" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -17685,13 +17624,13 @@
         <v>135</v>
       </c>
       <c r="G99" t="n" s="581">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H99" t="n" s="582">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I99" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -17714,13 +17653,13 @@
         <v>136</v>
       </c>
       <c r="G100" t="n" s="581">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H100" t="n" s="582">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I100" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -17743,13 +17682,13 @@
         <v>136</v>
       </c>
       <c r="G101" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H101" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I101" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
@@ -17772,13 +17711,13 @@
         <v>135</v>
       </c>
       <c r="G102" t="n" s="581">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H102" t="n" s="582">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I102" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
@@ -17801,13 +17740,13 @@
         <v>134</v>
       </c>
       <c r="G103" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H103" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I103" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
@@ -17830,13 +17769,13 @@
         <v>135</v>
       </c>
       <c r="G104" t="n" s="581">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H104" t="n" s="582">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I104" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
@@ -17859,13 +17798,13 @@
         <v>136</v>
       </c>
       <c r="G105" t="n" s="581">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H105" t="n" s="582">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I105" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
@@ -17888,13 +17827,13 @@
         <v>136</v>
       </c>
       <c r="G106" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H106" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I106" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
@@ -17917,13 +17856,13 @@
         <v>135</v>
       </c>
       <c r="G107" t="n" s="581">
-        <v>1.0416617962434696</v>
+        <v>0.976849840874514</v>
       </c>
       <c r="H107" t="n" s="582">
-        <v>0.4991231961083911</v>
+        <v>0.4967601069555859</v>
       </c>
       <c r="I107" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
@@ -17946,13 +17885,13 @@
         <v>135</v>
       </c>
       <c r="G108" t="n" s="581">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H108" t="n" s="582">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I108" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
@@ -17975,13 +17914,13 @@
         <v>134</v>
       </c>
       <c r="G109" t="n" s="581">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H109" t="n" s="582">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I109" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
@@ -18004,13 +17943,13 @@
         <v>134</v>
       </c>
       <c r="G110" t="n" s="581">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H110" t="n" s="582">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I110" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
@@ -18033,13 +17972,13 @@
         <v>134</v>
       </c>
       <c r="G111" t="n" s="581">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H111" t="n" s="582">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I111" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
@@ -18062,13 +18001,13 @@
         <v>134</v>
       </c>
       <c r="G112" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H112" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I112" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
@@ -18091,85 +18030,85 @@
         <v>134</v>
       </c>
       <c r="G113" t="n" s="581">
-        <v>-1.3607329886887947</v>
+        <v>-1.5225278839917182</v>
       </c>
       <c r="H113" t="n" s="582">
-        <v>0.45264088727971863</v>
+        <v>0.45384242527133106</v>
       </c>
       <c r="I113" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="575">
-        <v>10200.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B114" t="n" s="576">
-        <v>9795272.0</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C114" t="s" s="577">
         <v>28</v>
       </c>
       <c r="D114" t="s" s="578">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s" s="580">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G114" t="n" s="581">
-        <v>1.9065404060114814</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H114" t="n" s="582">
-        <v>0.661225755407761</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I114" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="575">
-        <v>10201.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B115" t="n" s="576">
-        <v>1.0276928E7</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C115" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s" s="578">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s" s="580">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G115" t="n" s="581">
-        <v>1.2795930062205645</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H115" t="n" s="582">
-        <v>0.5269491771185029</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I115" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="575">
-        <v>10202.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B116" t="n" s="576">
-        <v>1.0277036E7</v>
+        <v>9921470.0</v>
       </c>
       <c r="C116" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D116" t="s" s="578">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s" s="579">
         <v>29</v>
@@ -18178,56 +18117,56 @@
         <v>135</v>
       </c>
       <c r="G116" t="n" s="581">
-        <v>-0.6543326517017414</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H116" t="n" s="582">
-        <v>0.5092799511321389</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I116" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n" s="575">
-        <v>10203.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B117" t="n" s="576">
-        <v>9921470.0</v>
+        <v>1.0310471E7</v>
       </c>
       <c r="C117" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s" s="578">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E117" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s" s="580">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G117" t="n" s="581">
-        <v>0.8224490761629756</v>
+        <v>2.313299396435265</v>
       </c>
       <c r="H117" t="n" s="582">
-        <v>0.4844543610234488</v>
+        <v>0.8204623719766662</v>
       </c>
       <c r="I117" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n" s="575">
-        <v>10204.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B118" t="n" s="576">
-        <v>1.0310471E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C118" t="s" s="577">
         <v>28</v>
       </c>
       <c r="D118" t="s" s="578">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s" s="579">
         <v>30</v>
@@ -18236,143 +18175,143 @@
         <v>134</v>
       </c>
       <c r="G118" t="n" s="581">
-        <v>2.430878115710258</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H118" t="n" s="582">
-        <v>0.8388341444082589</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I118" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n" s="575">
-        <v>10206.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B119" t="n" s="576">
-        <v>1.0310721E7</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C119" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s" s="578">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E119" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s" s="580">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G119" t="n" s="581">
-        <v>-0.3588140158678748</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H119" t="n" s="582">
-        <v>0.5140925201529228</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I119" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n" s="575">
-        <v>10208.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B120" t="n" s="576">
-        <v>1.0276932E7</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C120" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s" s="578">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E120" t="s" s="579">
         <v>29</v>
       </c>
       <c r="F120" t="s" s="580">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G120" t="n" s="581">
-        <v>1.555316756688846</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H120" t="n" s="582">
-        <v>0.5752041012322622</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I120" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n" s="575">
-        <v>10209.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B121" t="n" s="576">
-        <v>1.0262669E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C121" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s" s="578">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E121" t="s" s="579">
         <v>29</v>
       </c>
       <c r="F121" t="s" s="580">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G121" t="n" s="581">
-        <v>-1.1584042108881816</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H121" t="n" s="582">
-        <v>0.4686827950943565</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I121" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n" s="575">
-        <v>10210.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B122" t="n" s="576">
-        <v>1.0277015E7</v>
+        <v>9311643.0</v>
       </c>
       <c r="C122" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D122" t="s" s="578">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G122" t="n" s="581">
-        <v>-0.3588140158678748</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H122" t="n" s="582">
-        <v>0.5140925201529228</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I122" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n" s="575">
-        <v>10211.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B123" t="n" s="576">
-        <v>9311643.0</v>
+        <v>9065750.0</v>
       </c>
       <c r="C123" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D123" t="s" s="578">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E123" t="s" s="579">
         <v>30</v>
@@ -18381,143 +18320,143 @@
         <v>135</v>
       </c>
       <c r="G123" t="n" s="581">
-        <v>1.555316756688846</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H123" t="n" s="582">
-        <v>0.5752041012322622</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I123" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="575">
-        <v>10212.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B124" t="n" s="576">
-        <v>9065750.0</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C124" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" t="s" s="578">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E124" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F124" t="s" s="580">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G124" t="n" s="581">
-        <v>1.2795930062205645</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H124" t="n" s="582">
-        <v>0.5269491771185029</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I124" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n" s="575">
-        <v>10213.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B125" t="n" s="576">
-        <v>1.027704E7</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C125" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s" s="578">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E125" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F125" t="s" s="580">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G125" t="n" s="581">
-        <v>1.555316756688846</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H125" t="n" s="582">
-        <v>0.5752041012322622</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I125" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n" s="575">
-        <v>10214.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B126" t="n" s="576">
-        <v>1.0277022E7</v>
+        <v>9285227.0</v>
       </c>
       <c r="C126" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s" s="578">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E126" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F126" t="s" s="580">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G126" t="n" s="581">
-        <v>-1.5460174618832232</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H126" t="n" s="582">
-        <v>0.4434453204926454</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I126" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n" s="575">
-        <v>10215.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B127" t="n" s="576">
-        <v>9285227.0</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C127" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s" s="578">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E127" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F127" t="s" s="580">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G127" t="n" s="581">
-        <v>0.1681393885805358</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H127" t="n" s="582">
-        <v>0.4914511555030068</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I127" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n" s="575">
-        <v>10216.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B128" t="n" s="576">
-        <v>1.027672E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C128" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D128" t="s" s="578">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E128" t="s" s="579">
         <v>30</v>
@@ -18526,259 +18465,259 @@
         <v>135</v>
       </c>
       <c r="G128" t="n" s="581">
-        <v>-0.3588140158678748</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H128" t="n" s="582">
-        <v>0.5140925201529228</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I128" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n" s="575">
-        <v>10217.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B129" t="n" s="576">
-        <v>9805341.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C129" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s" s="578">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E129" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F129" t="s" s="580">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G129" t="n" s="581">
-        <v>-1.1584042108881816</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H129" t="n" s="582">
-        <v>0.4686827950943565</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I129" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n" s="575">
-        <v>10218.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B130" t="n" s="576">
-        <v>9842913.0</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C130" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s" s="578">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E130" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F130" t="s" s="580">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G130" t="n" s="581">
-        <v>-1.5460174618832232</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H130" t="n" s="582">
-        <v>0.4434453204926454</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I130" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n" s="575">
-        <v>10219.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B131" t="n" s="576">
-        <v>1.0276831E7</v>
+        <v>9760151.0</v>
       </c>
       <c r="C131" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D131" t="s" s="578">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E131" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G131" t="n" s="581">
-        <v>-0.9264124251632999</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H131" t="n" s="582">
-        <v>0.4899370112419287</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I131" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n" s="575">
-        <v>10220.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B132" t="n" s="576">
-        <v>9760151.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C132" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s" s="578">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E132" t="s" s="579">
         <v>29</v>
       </c>
       <c r="F132" t="s" s="580">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G132" t="n" s="581">
-        <v>0.8224490761629756</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H132" t="n" s="582">
-        <v>0.4844543610234488</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I132" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n" s="575">
-        <v>10221.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B133" t="n" s="576">
-        <v>9082496.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C133" t="s" s="577">
         <v>28</v>
       </c>
       <c r="D133" t="s" s="578">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E133" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s" s="580">
         <v>134</v>
       </c>
       <c r="G133" t="n" s="581">
-        <v>-0.3588140158678748</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H133" t="n" s="582">
-        <v>0.5140925201529228</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I133" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n" s="575">
-        <v>10223.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B134" t="n" s="576">
-        <v>9795185.0</v>
+        <v>9368772.0</v>
       </c>
       <c r="C134" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" t="s" s="578">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E134" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s" s="580">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G134" t="n" s="581">
-        <v>1.2795930062205645</v>
+        <v>1.8149342572625908</v>
       </c>
       <c r="H134" t="n" s="582">
-        <v>0.5269491771185029</v>
+        <v>0.6498486577137698</v>
       </c>
       <c r="I134" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n" s="575">
-        <v>10224.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B135" t="n" s="576">
-        <v>9368772.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C135" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D135" t="s" s="578">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G135" t="n" s="581">
-        <v>1.9065404060114814</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H135" t="n" s="582">
-        <v>0.661225755407761</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I135" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n" s="575">
-        <v>10226.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B136" t="n" s="576">
-        <v>1.0310342E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C136" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D136" t="s" s="578">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E136" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G136" t="n" s="581">
-        <v>-0.9264124251632999</v>
+        <v>-2.428716568029001</v>
       </c>
       <c r="H136" t="n" s="582">
-        <v>0.4899370112419287</v>
+        <v>0.47754477160855874</v>
       </c>
       <c r="I136" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n" s="575">
-        <v>10227.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B137" t="n" s="576">
-        <v>9274382.0</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C137" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D137" t="s" s="578">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s" s="579">
         <v>29</v>
@@ -18787,21 +18726,21 @@
         <v>135</v>
       </c>
       <c r="G137" t="n" s="581">
-        <v>-2.286960722554974</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H137" t="n" s="582">
-        <v>0.48458789472867325</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I137" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n" s="575">
-        <v>10228.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B138" t="n" s="576">
-        <v>1.0310492E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C138" t="s" s="577">
         <v>27</v>
@@ -18810,120 +18749,120 @@
         <v>132</v>
       </c>
       <c r="E138" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G138" t="n" s="581">
-        <v>-0.6543326517017414</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H138" t="n" s="582">
-        <v>0.5092799511321389</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I138" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n" s="575">
-        <v>10230.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B139" t="n" s="576">
-        <v>1.0351992E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C139" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s" s="578">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E139" t="s" s="579">
         <v>30</v>
       </c>
       <c r="F139" t="s" s="580">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G139" t="n" s="581">
-        <v>-2.0863945084249242</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H139" t="n" s="582">
-        <v>0.4600204758925508</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I139" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n" s="575">
-        <v>10232.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B140" t="n" s="576">
-        <v>1.0276974E7</v>
+        <v>9805320.0</v>
       </c>
       <c r="C140" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" t="s" s="578">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E140" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s" s="580">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G140" t="n" s="581">
-        <v>0.8224490761629756</v>
+        <v>-1.8810364248477331</v>
       </c>
       <c r="H140" t="n" s="582">
-        <v>0.4844543610234488</v>
+        <v>0.43844122679500463</v>
       </c>
       <c r="I140" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n" s="575">
-        <v>10233.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B141" t="n" s="576">
-        <v>9805320.0</v>
+        <v>1.0310676E7</v>
       </c>
       <c r="C141" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D141" t="s" s="578">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E141" t="s" s="579">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G141" t="n" s="581">
-        <v>-1.723758728491708</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H141" t="n" s="582">
-        <v>0.4412765460507782</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I141" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n" s="575">
-        <v>10234.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B142" t="n" s="576">
-        <v>1.0310676E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C142" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D142" t="s" s="578">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E142" t="s" s="579">
         <v>30</v>
@@ -18932,100 +18871,71 @@
         <v>135</v>
       </c>
       <c r="G142" t="n" s="581">
-        <v>-2.0863945084249242</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H142" t="n" s="582">
-        <v>0.4600204758925508</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I142" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n" s="575">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B143" t="n" s="576">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C143" t="s" s="577">
         <v>27</v>
       </c>
       <c r="D143" t="s" s="578">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E143" t="s" s="579">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s" s="580">
         <v>135</v>
       </c>
       <c r="G143" t="n" s="581">
-        <v>-0.0803884874726979</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H143" t="n" s="582">
-        <v>0.5043580861250034</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I143" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n" s="575">
-        <v>10238.0</v>
+        <v>10240.0</v>
       </c>
       <c r="B144" t="n" s="576">
-        <v>1.0276953E7</v>
+        <v>1.0276654E7</v>
       </c>
       <c r="C144" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s" s="578">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E144" t="s" s="579">
         <v>29</v>
       </c>
       <c r="F144" t="s" s="580">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G144" t="n" s="581">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H144" t="n" s="582">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I144" t="n" s="583">
-        <v>0.7953280307097791</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n" s="575">
-        <v>10240.0</v>
-      </c>
-      <c r="B145" t="n" s="576">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C145" t="s" s="577">
-        <v>28</v>
-      </c>
-      <c r="D145" t="s" s="578">
-        <v>124</v>
-      </c>
-      <c r="E145" t="s" s="579">
-        <v>29</v>
-      </c>
-      <c r="F145" t="s" s="580">
-        <v>134</v>
-      </c>
-      <c r="G145" t="n" s="581">
-        <v>-0.9264124251632999</v>
-      </c>
-      <c r="H145" t="n" s="582">
-        <v>0.4899370112419287</v>
-      </c>
-      <c r="I145" t="n" s="583">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -19132,34 +19042,34 @@
         <v>13.0</v>
       </c>
       <c r="C7" t="n" s="628">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D7" t="n" s="629">
-        <v>0.4940004763759953</v>
+        <v>0.5046264592114299</v>
       </c>
       <c r="E7" t="n" s="630">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F7" t="n" s="631">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G7" t="n" s="632">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H7" t="n" s="633">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I7" t="n" s="634">
-        <v>23.69375101128173</v>
+        <v>23.78568884548449</v>
       </c>
       <c r="J7" t="n" s="635">
-        <v>1.0356960511180573</v>
+        <v>1.0315558411046581</v>
       </c>
       <c r="K7" t="n" s="636">
-        <v>0.844600289025839</v>
+        <v>0.8436720924205965</v>
       </c>
       <c r="L7" t="n" s="637">
-        <v>0.3857360585748776</v>
+        <v>0.3839930555094737</v>
       </c>
       <c r="M7" t="s" s="638">
         <v>91</v>
@@ -19173,34 +19083,34 @@
         <v>15.0</v>
       </c>
       <c r="C8" t="n" s="628">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D8" t="n" s="629">
-        <v>-0.4940004763759953</v>
+        <v>-0.5046264592114299</v>
       </c>
       <c r="E8" t="n" s="630">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F8" t="n" s="631">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G8" t="n" s="632">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H8" t="n" s="633">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I8" t="n" s="634">
-        <v>23.69375101128173</v>
+        <v>23.78568884548449</v>
       </c>
       <c r="J8" t="n" s="635">
-        <v>1.0356960511180573</v>
+        <v>1.0315558411046581</v>
       </c>
       <c r="K8" t="n" s="636">
-        <v>0.844600289025839</v>
+        <v>0.8436720924205965</v>
       </c>
       <c r="L8" t="n" s="637">
-        <v>0.3857360585748776</v>
+        <v>0.3839930555094737</v>
       </c>
       <c r="M8" t="s" s="638">
         <v>91</v>
@@ -19260,34 +19170,34 @@
         <v>13.0</v>
       </c>
       <c r="C11" t="n" s="659">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D11" t="n" s="660">
-        <v>0.4940004763759953</v>
+        <v>0.5046264592114299</v>
       </c>
       <c r="E11" t="n" s="661">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F11" t="n" s="662">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G11" t="n" s="663">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H11" t="n" s="664">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I11" t="n" s="665">
-        <v>23.69375101128173</v>
+        <v>23.78568884548449</v>
       </c>
       <c r="J11" t="n" s="666">
-        <v>1.0356960511180573</v>
+        <v>1.0315558411046581</v>
       </c>
       <c r="K11" t="n" s="667">
-        <v>0.15539971097416103</v>
+        <v>0.1563279075794035</v>
       </c>
       <c r="L11" t="n" s="668">
-        <v>0.3857360585748776</v>
+        <v>0.3839930555094737</v>
       </c>
       <c r="M11" t="s" s="669">
         <v>91</v>
@@ -19301,34 +19211,34 @@
         <v>15.0</v>
       </c>
       <c r="C12" t="n" s="659">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D12" t="n" s="660">
-        <v>-0.4940004763759953</v>
+        <v>-0.5046264592114299</v>
       </c>
       <c r="E12" t="n" s="661">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F12" t="n" s="662">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G12" t="n" s="663">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H12" t="n" s="664">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I12" t="n" s="665">
-        <v>23.69375101128173</v>
+        <v>23.78568884548449</v>
       </c>
       <c r="J12" t="n" s="666">
-        <v>1.0356960511180573</v>
+        <v>1.0315558411046581</v>
       </c>
       <c r="K12" t="n" s="667">
-        <v>0.15539971097416103</v>
+        <v>0.1563279075794035</v>
       </c>
       <c r="L12" t="n" s="668">
-        <v>0.3857360585748776</v>
+        <v>0.3839930555094737</v>
       </c>
       <c r="M12" t="s" s="669">
         <v>91</v>
@@ -19388,34 +19298,34 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="n" s="690">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D15" t="n" s="691">
-        <v>0.4940004763759953</v>
+        <v>0.5046264592114299</v>
       </c>
       <c r="E15" t="n" s="692">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F15" t="n" s="693">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G15" t="n" s="694">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H15" t="n" s="695">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I15" t="n" s="696">
-        <v>23.69375101128173</v>
+        <v>23.78568884548449</v>
       </c>
       <c r="J15" t="n" s="697">
-        <v>1.0356960511180573</v>
+        <v>1.0315558411046581</v>
       </c>
       <c r="K15" t="n" s="698">
-        <v>0.31079942194832205</v>
+        <v>0.312655815158807</v>
       </c>
       <c r="L15" t="n" s="699">
-        <v>0.3857360585748776</v>
+        <v>0.3839930555094737</v>
       </c>
       <c r="M15" t="s" s="700">
         <v>91</v>
@@ -19429,34 +19339,34 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n" s="690">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D16" t="n" s="691">
-        <v>-0.4940004763759953</v>
+        <v>-0.5046264592114299</v>
       </c>
       <c r="E16" t="n" s="692">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F16" t="n" s="693">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G16" t="n" s="694">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H16" t="n" s="695">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I16" t="n" s="696">
-        <v>23.69375101128173</v>
+        <v>23.78568884548449</v>
       </c>
       <c r="J16" t="n" s="697">
-        <v>1.0356960511180573</v>
+        <v>1.0315558411046581</v>
       </c>
       <c r="K16" t="n" s="698">
-        <v>0.31079942194832205</v>
+        <v>0.312655815158807</v>
       </c>
       <c r="L16" t="n" s="699">
-        <v>0.3857360585748776</v>
+        <v>0.3839930555094737</v>
       </c>
       <c r="M16" t="s" s="700">
         <v>91</v>
@@ -19871,13 +19781,13 @@
         <v>135</v>
       </c>
       <c r="G90" t="n" s="737">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H90" t="n" s="738">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I90" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -19900,13 +19810,13 @@
         <v>135</v>
       </c>
       <c r="G91" t="n" s="737">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H91" t="n" s="738">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I91" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -19929,13 +19839,13 @@
         <v>135</v>
       </c>
       <c r="G92" t="n" s="737">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H92" t="n" s="738">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I92" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -19958,13 +19868,13 @@
         <v>135</v>
       </c>
       <c r="G93" t="n" s="737">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H93" t="n" s="738">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I93" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -19987,13 +19897,13 @@
         <v>135</v>
       </c>
       <c r="G94" t="n" s="737">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H94" t="n" s="738">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I94" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -20016,13 +19926,13 @@
         <v>135</v>
       </c>
       <c r="G95" t="n" s="737">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H95" t="n" s="738">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I95" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -20045,13 +19955,13 @@
         <v>135</v>
       </c>
       <c r="G96" t="n" s="737">
-        <v>1.0416617962434696</v>
+        <v>0.976849840874514</v>
       </c>
       <c r="H96" t="n" s="738">
-        <v>0.4991231961083911</v>
+        <v>0.4967601069555859</v>
       </c>
       <c r="I96" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -20074,13 +19984,13 @@
         <v>135</v>
       </c>
       <c r="G97" t="n" s="737">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H97" t="n" s="738">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I97" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -20103,13 +20013,13 @@
         <v>135</v>
       </c>
       <c r="G98" t="n" s="737">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H98" t="n" s="738">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I98" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -20132,13 +20042,13 @@
         <v>135</v>
       </c>
       <c r="G99" t="n" s="737">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H99" t="n" s="738">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I99" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -20161,13 +20071,13 @@
         <v>135</v>
       </c>
       <c r="G100" t="n" s="737">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H100" t="n" s="738">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I100" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -20190,13 +20100,13 @@
         <v>135</v>
       </c>
       <c r="G101" t="n" s="737">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H101" t="n" s="738">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I101" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
@@ -20219,13 +20129,13 @@
         <v>135</v>
       </c>
       <c r="G102" t="n" s="737">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H102" t="n" s="738">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I102" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
@@ -20248,13 +20158,13 @@
         <v>135</v>
       </c>
       <c r="G103" t="n" s="737">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H103" t="n" s="738">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I103" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
@@ -20277,13 +20187,13 @@
         <v>135</v>
       </c>
       <c r="G104" t="n" s="737">
-        <v>-1.5460174618832232</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H104" t="n" s="738">
-        <v>0.4434453204926454</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I104" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
@@ -20306,13 +20216,13 @@
         <v>135</v>
       </c>
       <c r="G105" t="n" s="737">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H105" t="n" s="738">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I105" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
@@ -20335,13 +20245,13 @@
         <v>135</v>
       </c>
       <c r="G106" t="n" s="737">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H106" t="n" s="738">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I106" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
@@ -20364,13 +20274,13 @@
         <v>135</v>
       </c>
       <c r="G107" t="n" s="737">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H107" t="n" s="738">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I107" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
@@ -20393,13 +20303,13 @@
         <v>135</v>
       </c>
       <c r="G108" t="n" s="737">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H108" t="n" s="738">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I108" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
@@ -20422,13 +20332,13 @@
         <v>135</v>
       </c>
       <c r="G109" t="n" s="737">
-        <v>1.9065404060114814</v>
+        <v>1.8149342572625908</v>
       </c>
       <c r="H109" t="n" s="738">
-        <v>0.661225755407761</v>
+        <v>0.6498486577137698</v>
       </c>
       <c r="I109" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
@@ -20451,13 +20361,13 @@
         <v>135</v>
       </c>
       <c r="G110" t="n" s="737">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H110" t="n" s="738">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I110" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
@@ -20480,13 +20390,13 @@
         <v>135</v>
       </c>
       <c r="G111" t="n" s="737">
-        <v>-2.286960722554974</v>
+        <v>-2.428716568029001</v>
       </c>
       <c r="H111" t="n" s="738">
-        <v>0.48458789472867325</v>
+        <v>0.47754477160855874</v>
       </c>
       <c r="I111" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
@@ -20509,13 +20419,13 @@
         <v>135</v>
       </c>
       <c r="G112" t="n" s="737">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H112" t="n" s="738">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I112" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
@@ -20538,13 +20448,13 @@
         <v>135</v>
       </c>
       <c r="G113" t="n" s="737">
-        <v>-2.0863945084249242</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H113" t="n" s="738">
-        <v>0.4600204758925508</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I113" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
@@ -20567,13 +20477,13 @@
         <v>135</v>
       </c>
       <c r="G114" t="n" s="737">
-        <v>-1.723758728491708</v>
+        <v>-1.8810364248477331</v>
       </c>
       <c r="H114" t="n" s="738">
-        <v>0.4412765460507782</v>
+        <v>0.43844122679500463</v>
       </c>
       <c r="I114" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="115">
@@ -20596,13 +20506,13 @@
         <v>135</v>
       </c>
       <c r="G115" t="n" s="737">
-        <v>-2.0863945084249242</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H115" t="n" s="738">
-        <v>0.4600204758925508</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I115" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="116">
@@ -20625,13 +20535,13 @@
         <v>135</v>
       </c>
       <c r="G116" t="n" s="737">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H116" t="n" s="738">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I116" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="117">
@@ -20654,13 +20564,13 @@
         <v>135</v>
       </c>
       <c r="G117" t="n" s="737">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H117" t="n" s="738">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I117" t="n" s="739">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -20767,37 +20677,37 @@
         <v>13.0</v>
       </c>
       <c r="C7" t="n" s="784">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D7" t="n" s="785">
-        <v>0.09306678981030378</v>
+        <v>0.2467434776416554</v>
       </c>
       <c r="E7" t="n" s="786">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F7" t="n" s="787">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G7" t="n" s="788">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H7" t="n" s="789">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I7" t="n" s="790">
-        <v>19.40928910123005</v>
+        <v>16.60623150099869</v>
       </c>
       <c r="J7" t="n" s="791">
-        <v>0.21412919728406485</v>
+        <v>0.587209255784271</v>
       </c>
       <c r="K7" t="n" s="792">
-        <v>0.5836600941825694</v>
+        <v>0.7175187978858316</v>
       </c>
       <c r="L7" t="n" s="793">
-        <v>0.08133611651424238</v>
+        <v>0.22091867150272268</v>
       </c>
       <c r="M7" t="s" s="794">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -20805,40 +20715,40 @@
         <v>70</v>
       </c>
       <c r="B8" t="n" s="783">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C8" t="n" s="784">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D8" t="n" s="785">
-        <v>-0.09306678981030378</v>
+        <v>-0.2467434776416554</v>
       </c>
       <c r="E8" t="n" s="786">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F8" t="n" s="787">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G8" t="n" s="788">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H8" t="n" s="789">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I8" t="n" s="790">
-        <v>19.40928910123005</v>
+        <v>16.60623150099869</v>
       </c>
       <c r="J8" t="n" s="791">
-        <v>0.21412919728406485</v>
+        <v>0.587209255784271</v>
       </c>
       <c r="K8" t="n" s="792">
-        <v>0.5836600941825694</v>
+        <v>0.7175187978858316</v>
       </c>
       <c r="L8" t="n" s="793">
-        <v>0.08133611651424238</v>
+        <v>0.22091867150272268</v>
       </c>
       <c r="M8" t="s" s="794">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -20895,37 +20805,37 @@
         <v>13.0</v>
       </c>
       <c r="C11" t="n" s="815">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D11" t="n" s="816">
-        <v>0.09306678981030378</v>
+        <v>0.2467434776416554</v>
       </c>
       <c r="E11" t="n" s="817">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F11" t="n" s="818">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G11" t="n" s="819">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H11" t="n" s="820">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I11" t="n" s="821">
-        <v>19.40928910123005</v>
+        <v>16.60623150099869</v>
       </c>
       <c r="J11" t="n" s="822">
-        <v>0.21412919728406485</v>
+        <v>0.587209255784271</v>
       </c>
       <c r="K11" t="n" s="823">
-        <v>0.4163399058174307</v>
+        <v>0.2824812021141684</v>
       </c>
       <c r="L11" t="n" s="824">
-        <v>0.08133611651424238</v>
+        <v>0.22091867150272268</v>
       </c>
       <c r="M11" t="s" s="825">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -20933,40 +20843,40 @@
         <v>70</v>
       </c>
       <c r="B12" t="n" s="814">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n" s="815">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D12" t="n" s="816">
-        <v>-0.09306678981030378</v>
+        <v>-0.2467434776416554</v>
       </c>
       <c r="E12" t="n" s="817">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F12" t="n" s="818">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G12" t="n" s="819">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H12" t="n" s="820">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I12" t="n" s="821">
-        <v>19.40928910123005</v>
+        <v>16.60623150099869</v>
       </c>
       <c r="J12" t="n" s="822">
-        <v>0.21412919728406485</v>
+        <v>0.587209255784271</v>
       </c>
       <c r="K12" t="n" s="823">
-        <v>0.4163399058174307</v>
+        <v>0.2824812021141684</v>
       </c>
       <c r="L12" t="n" s="824">
-        <v>0.08133611651424238</v>
+        <v>0.22091867150272268</v>
       </c>
       <c r="M12" t="s" s="825">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -21023,37 +20933,37 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="n" s="846">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D15" t="n" s="847">
-        <v>0.09306678981030378</v>
+        <v>0.2467434776416554</v>
       </c>
       <c r="E15" t="n" s="848">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F15" t="n" s="849">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G15" t="n" s="850">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H15" t="n" s="851">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I15" t="n" s="852">
-        <v>19.40928910123005</v>
+        <v>16.60623150099869</v>
       </c>
       <c r="J15" t="n" s="853">
-        <v>0.21412919728406485</v>
+        <v>0.587209255784271</v>
       </c>
       <c r="K15" t="n" s="854">
-        <v>0.8326798116348614</v>
+        <v>0.5649624042283368</v>
       </c>
       <c r="L15" t="n" s="855">
-        <v>0.08133611651424238</v>
+        <v>0.22091867150272268</v>
       </c>
       <c r="M15" t="s" s="856">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -21061,40 +20971,40 @@
         <v>70</v>
       </c>
       <c r="B16" t="n" s="845">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C16" t="n" s="846">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D16" t="n" s="847">
-        <v>-0.09306678981030378</v>
+        <v>-0.2467434776416554</v>
       </c>
       <c r="E16" t="n" s="848">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F16" t="n" s="849">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G16" t="n" s="850">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H16" t="n" s="851">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I16" t="n" s="852">
-        <v>19.40928910123005</v>
+        <v>16.60623150099869</v>
       </c>
       <c r="J16" t="n" s="853">
-        <v>0.21412919728406485</v>
+        <v>0.587209255784271</v>
       </c>
       <c r="K16" t="n" s="854">
-        <v>0.8326798116348614</v>
+        <v>0.5649624042283368</v>
       </c>
       <c r="L16" t="n" s="855">
-        <v>0.08133611651424238</v>
+        <v>0.22091867150272268</v>
       </c>
       <c r="M16" t="s" s="856">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -21506,13 +21416,13 @@
         <v>134</v>
       </c>
       <c r="G90" t="n" s="893">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H90" t="n" s="894">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I90" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -21535,13 +21445,13 @@
         <v>135</v>
       </c>
       <c r="G91" t="n" s="893">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H91" t="n" s="894">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I91" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -21564,13 +21474,13 @@
         <v>134</v>
       </c>
       <c r="G92" t="n" s="893">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H92" t="n" s="894">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I92" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -21593,13 +21503,13 @@
         <v>136</v>
       </c>
       <c r="G93" t="n" s="893">
-        <v>0.39489127659420636</v>
+        <v>0.3307476835296113</v>
       </c>
       <c r="H93" t="n" s="894">
-        <v>0.48227608647545783</v>
+        <v>0.48658427925818015</v>
       </c>
       <c r="I93" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -21622,13 +21532,13 @@
         <v>136</v>
       </c>
       <c r="G94" t="n" s="893">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H94" t="n" s="894">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I94" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -21651,13 +21561,13 @@
         <v>135</v>
       </c>
       <c r="G95" t="n" s="893">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H95" t="n" s="894">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I95" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -21680,13 +21590,13 @@
         <v>134</v>
       </c>
       <c r="G96" t="n" s="893">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H96" t="n" s="894">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I96" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -21709,13 +21619,13 @@
         <v>136</v>
       </c>
       <c r="G97" t="n" s="893">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H97" t="n" s="894">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I97" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -21738,13 +21648,13 @@
         <v>135</v>
       </c>
       <c r="G98" t="n" s="893">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H98" t="n" s="894">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I98" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -21767,13 +21677,13 @@
         <v>134</v>
       </c>
       <c r="G99" t="n" s="893">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H99" t="n" s="894">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I99" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -21796,13 +21706,13 @@
         <v>134</v>
       </c>
       <c r="G100" t="n" s="893">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H100" t="n" s="894">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I100" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -21825,56 +21735,56 @@
         <v>134</v>
       </c>
       <c r="G101" t="n" s="893">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H101" t="n" s="894">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I101" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="887">
-        <v>10200.0</v>
+        <v>10202.0</v>
       </c>
       <c r="B102" t="n" s="888">
-        <v>9795272.0</v>
+        <v>1.0277036E7</v>
       </c>
       <c r="C102" t="s" s="889">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s" s="890">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F102" t="s" s="892">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G102" t="n" s="893">
-        <v>1.9065404060114814</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H102" t="n" s="894">
-        <v>0.661225755407761</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I102" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="887">
-        <v>10202.0</v>
+        <v>10203.0</v>
       </c>
       <c r="B103" t="n" s="888">
-        <v>1.0277036E7</v>
+        <v>9921470.0</v>
       </c>
       <c r="C103" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D103" t="s" s="890">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E103" t="s" s="891">
         <v>29</v>
@@ -21883,27 +21793,27 @@
         <v>135</v>
       </c>
       <c r="G103" t="n" s="893">
-        <v>-0.6543326517017414</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H103" t="n" s="894">
-        <v>0.5092799511321389</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I103" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="887">
-        <v>10203.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B104" t="n" s="888">
-        <v>9921470.0</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C104" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D104" t="s" s="890">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s" s="891">
         <v>29</v>
@@ -21912,85 +21822,85 @@
         <v>135</v>
       </c>
       <c r="G104" t="n" s="893">
-        <v>0.8224490761629756</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H104" t="n" s="894">
-        <v>0.4844543610234488</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I104" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="887">
-        <v>10208.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B105" t="n" s="888">
-        <v>1.0276932E7</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C105" t="s" s="889">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s" s="890">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F105" t="s" s="892">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G105" t="n" s="893">
-        <v>1.555316756688846</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H105" t="n" s="894">
-        <v>0.5752041012322622</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I105" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="887">
-        <v>10209.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B106" t="n" s="888">
-        <v>1.0262669E7</v>
+        <v>1.0277015E7</v>
       </c>
       <c r="C106" t="s" s="889">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s" s="890">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E106" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F106" t="s" s="892">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G106" t="n" s="893">
-        <v>-1.1584042108881816</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H106" t="n" s="894">
-        <v>0.4686827950943565</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I106" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="887">
-        <v>10210.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B107" t="n" s="888">
-        <v>1.0277015E7</v>
+        <v>9760151.0</v>
       </c>
       <c r="C107" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D107" t="s" s="890">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s" s="891">
         <v>29</v>
@@ -21999,85 +21909,85 @@
         <v>135</v>
       </c>
       <c r="G107" t="n" s="893">
-        <v>-0.3588140158678748</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H107" t="n" s="894">
-        <v>0.5140925201529228</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I107" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="887">
-        <v>10220.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B108" t="n" s="888">
-        <v>9760151.0</v>
+        <v>9082496.0</v>
       </c>
       <c r="C108" t="s" s="889">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s" s="890">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E108" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F108" t="s" s="892">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G108" t="n" s="893">
-        <v>0.8224490761629756</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H108" t="n" s="894">
-        <v>0.4844543610234488</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I108" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="887">
-        <v>10221.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B109" t="n" s="888">
-        <v>9082496.0</v>
+        <v>9368772.0</v>
       </c>
       <c r="C109" t="s" s="889">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s" s="890">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F109" t="s" s="892">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G109" t="n" s="893">
-        <v>-0.3588140158678748</v>
+        <v>1.8149342572625908</v>
       </c>
       <c r="H109" t="n" s="894">
-        <v>0.5140925201529228</v>
+        <v>0.6498486577137698</v>
       </c>
       <c r="I109" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="887">
-        <v>10224.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B110" t="n" s="888">
-        <v>9368772.0</v>
+        <v>9274382.0</v>
       </c>
       <c r="C110" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D110" t="s" s="890">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E110" t="s" s="891">
         <v>29</v>
@@ -22086,27 +21996,27 @@
         <v>135</v>
       </c>
       <c r="G110" t="n" s="893">
-        <v>1.9065404060114814</v>
+        <v>-2.428716568029001</v>
       </c>
       <c r="H110" t="n" s="894">
-        <v>0.661225755407761</v>
+        <v>0.47754477160855874</v>
       </c>
       <c r="I110" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="887">
-        <v>10227.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B111" t="n" s="888">
-        <v>9274382.0</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C111" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D111" t="s" s="890">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E111" t="s" s="891">
         <v>29</v>
@@ -22115,27 +22025,27 @@
         <v>135</v>
       </c>
       <c r="G111" t="n" s="893">
-        <v>-2.286960722554974</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H111" t="n" s="894">
-        <v>0.48458789472867325</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I111" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="887">
-        <v>10228.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B112" t="n" s="888">
-        <v>1.0310492E7</v>
+        <v>9805320.0</v>
       </c>
       <c r="C112" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D112" t="s" s="890">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s" s="891">
         <v>29</v>
@@ -22144,27 +22054,27 @@
         <v>135</v>
       </c>
       <c r="G112" t="n" s="893">
-        <v>-0.6543326517017414</v>
+        <v>-1.8810364248477331</v>
       </c>
       <c r="H112" t="n" s="894">
-        <v>0.5092799511321389</v>
+        <v>0.43844122679500463</v>
       </c>
       <c r="I112" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="887">
-        <v>10233.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B113" t="n" s="888">
-        <v>9805320.0</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C113" t="s" s="889">
         <v>27</v>
       </c>
       <c r="D113" t="s" s="890">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E113" t="s" s="891">
         <v>29</v>
@@ -22173,71 +22083,42 @@
         <v>135</v>
       </c>
       <c r="G113" t="n" s="893">
-        <v>-1.723758728491708</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H113" t="n" s="894">
-        <v>0.4412765460507782</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I113" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="887">
-        <v>10238.0</v>
+        <v>10240.0</v>
       </c>
       <c r="B114" t="n" s="888">
-        <v>1.0276953E7</v>
+        <v>1.0276654E7</v>
       </c>
       <c r="C114" t="s" s="889">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s" s="890">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E114" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F114" t="s" s="892">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G114" t="n" s="893">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H114" t="n" s="894">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I114" t="n" s="895">
-        <v>0.7953280307097791</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n" s="887">
-        <v>10240.0</v>
-      </c>
-      <c r="B115" t="n" s="888">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C115" t="s" s="889">
-        <v>28</v>
-      </c>
-      <c r="D115" t="s" s="890">
-        <v>124</v>
-      </c>
-      <c r="E115" t="s" s="891">
-        <v>29</v>
-      </c>
-      <c r="F115" t="s" s="892">
-        <v>134</v>
-      </c>
-      <c r="G115" t="n" s="893">
-        <v>-0.9264124251632999</v>
-      </c>
-      <c r="H115" t="n" s="894">
-        <v>0.4899370112419287</v>
-      </c>
-      <c r="I115" t="n" s="895">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -22272,7 +22153,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="897">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -22344,34 +22225,34 @@
         <v>13.0</v>
       </c>
       <c r="C7" t="n" s="940">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D7" t="n" s="941">
-        <v>-0.31214518520497164</v>
+        <v>-0.3258129932162085</v>
       </c>
       <c r="E7" t="n" s="942">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F7" t="n" s="943">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G7" t="n" s="944">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H7" t="n" s="945">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I7" t="n" s="946">
-        <v>23.730994455542543</v>
+        <v>23.718664736524246</v>
       </c>
       <c r="J7" t="n" s="947">
-        <v>-0.6536943100490208</v>
+        <v>-0.6673827623116034</v>
       </c>
       <c r="K7" t="n" s="948">
-        <v>0.25979665392871143</v>
+        <v>0.25548461996951755</v>
       </c>
       <c r="L7" t="n" s="949">
-        <v>-0.2434114017580964</v>
+        <v>-0.24852587535681042</v>
       </c>
       <c r="M7" t="s" s="950">
         <v>91</v>
@@ -22385,34 +22266,34 @@
         <v>15.0</v>
       </c>
       <c r="C8" t="n" s="940">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D8" t="n" s="941">
-        <v>0.31214518520497164</v>
+        <v>0.3258129932162085</v>
       </c>
       <c r="E8" t="n" s="942">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F8" t="n" s="943">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G8" t="n" s="944">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H8" t="n" s="945">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I8" t="n" s="946">
-        <v>23.730994455542543</v>
+        <v>23.718664736524246</v>
       </c>
       <c r="J8" t="n" s="947">
-        <v>-0.6536943100490208</v>
+        <v>-0.6673827623116034</v>
       </c>
       <c r="K8" t="n" s="948">
-        <v>0.25979665392871143</v>
+        <v>0.25548461996951755</v>
       </c>
       <c r="L8" t="n" s="949">
-        <v>-0.2434114017580964</v>
+        <v>-0.24852587535681042</v>
       </c>
       <c r="M8" t="s" s="950">
         <v>91</v>
@@ -22472,34 +22353,34 @@
         <v>13.0</v>
       </c>
       <c r="C11" t="n" s="971">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D11" t="n" s="972">
-        <v>-0.31214518520497164</v>
+        <v>-0.3258129932162085</v>
       </c>
       <c r="E11" t="n" s="973">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F11" t="n" s="974">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G11" t="n" s="975">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H11" t="n" s="976">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I11" t="n" s="977">
-        <v>23.730994455542543</v>
+        <v>23.718664736524246</v>
       </c>
       <c r="J11" t="n" s="978">
-        <v>-0.6536943100490208</v>
+        <v>-0.6673827623116034</v>
       </c>
       <c r="K11" t="n" s="979">
-        <v>0.7402033460712886</v>
+        <v>0.7445153800304825</v>
       </c>
       <c r="L11" t="n" s="980">
-        <v>-0.2434114017580964</v>
+        <v>-0.24852587535681042</v>
       </c>
       <c r="M11" t="s" s="981">
         <v>91</v>
@@ -22513,34 +22394,34 @@
         <v>15.0</v>
       </c>
       <c r="C12" t="n" s="971">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D12" t="n" s="972">
-        <v>0.31214518520497164</v>
+        <v>0.3258129932162085</v>
       </c>
       <c r="E12" t="n" s="973">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F12" t="n" s="974">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G12" t="n" s="975">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H12" t="n" s="976">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I12" t="n" s="977">
-        <v>23.730994455542543</v>
+        <v>23.718664736524246</v>
       </c>
       <c r="J12" t="n" s="978">
-        <v>-0.6536943100490208</v>
+        <v>-0.6673827623116034</v>
       </c>
       <c r="K12" t="n" s="979">
-        <v>0.7402033460712886</v>
+        <v>0.7445153800304825</v>
       </c>
       <c r="L12" t="n" s="980">
-        <v>-0.2434114017580964</v>
+        <v>-0.24852587535681042</v>
       </c>
       <c r="M12" t="s" s="981">
         <v>91</v>
@@ -22600,34 +22481,34 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="n" s="1002">
-        <v>0.052517017750200616</v>
+        <v>-0.05419978920175664</v>
       </c>
       <c r="D15" t="n" s="1003">
-        <v>-0.31214518520497164</v>
+        <v>-0.3258129932162085</v>
       </c>
       <c r="E15" t="n" s="1004">
-        <v>1.3509330148905674</v>
+        <v>1.3816782326562222</v>
       </c>
       <c r="F15" t="n" s="1005">
-        <v>0.3746814042234691</v>
+        <v>0.38320859338726715</v>
       </c>
       <c r="G15" t="n" s="1006">
-        <v>-0.6968457906967376</v>
+        <v>-0.8206169759762909</v>
       </c>
       <c r="H15" t="n" s="1007">
-        <v>0.8018798261971387</v>
+        <v>0.7122173975727777</v>
       </c>
       <c r="I15" t="n" s="1008">
-        <v>23.730994455542543</v>
+        <v>23.718664736524246</v>
       </c>
       <c r="J15" t="n" s="1009">
-        <v>-0.6536943100490208</v>
+        <v>-0.6673827623116034</v>
       </c>
       <c r="K15" t="n" s="1010">
-        <v>0.5195933078574229</v>
+        <v>0.5109692399390351</v>
       </c>
       <c r="L15" t="n" s="1011">
-        <v>-0.2434114017580964</v>
+        <v>-0.24852587535681042</v>
       </c>
       <c r="M15" t="s" s="1012">
         <v>91</v>
@@ -22641,34 +22522,34 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n" s="1002">
-        <v>0.36466220295517227</v>
+        <v>0.2716132040144518</v>
       </c>
       <c r="D16" t="n" s="1003">
-        <v>0.31214518520497164</v>
+        <v>0.3258129932162085</v>
       </c>
       <c r="E16" t="n" s="1004">
-        <v>1.1464886606883686</v>
+        <v>1.1714454398832628</v>
       </c>
       <c r="F16" t="n" s="1005">
-        <v>0.2960220992974465</v>
+        <v>0.3024659119772332</v>
       </c>
       <c r="G16" t="n" s="1006">
-        <v>-0.22738199563972072</v>
+        <v>-0.3333186199400146</v>
       </c>
       <c r="H16" t="n" s="1007">
-        <v>0.9567064015500653</v>
+        <v>0.8765450279689182</v>
       </c>
       <c r="I16" t="n" s="1008">
-        <v>23.730994455542543</v>
+        <v>23.718664736524246</v>
       </c>
       <c r="J16" t="n" s="1009">
-        <v>-0.6536943100490208</v>
+        <v>-0.6673827623116034</v>
       </c>
       <c r="K16" t="n" s="1010">
-        <v>0.5195933078574229</v>
+        <v>0.5109692399390351</v>
       </c>
       <c r="L16" t="n" s="1011">
-        <v>-0.2434114017580964</v>
+        <v>-0.24852587535681042</v>
       </c>
       <c r="M16" t="s" s="1012">
         <v>91</v>
@@ -23083,13 +22964,13 @@
         <v>134</v>
       </c>
       <c r="G90" t="n" s="1049">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H90" t="n" s="1050">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I90" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -23112,13 +22993,13 @@
         <v>135</v>
       </c>
       <c r="G91" t="n" s="1049">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H91" t="n" s="1050">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I91" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -23141,13 +23022,13 @@
         <v>134</v>
       </c>
       <c r="G92" t="n" s="1049">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H92" t="n" s="1050">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I92" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -23170,13 +23051,13 @@
         <v>136</v>
       </c>
       <c r="G93" t="n" s="1049">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H93" t="n" s="1050">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I93" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -23199,13 +23080,13 @@
         <v>136</v>
       </c>
       <c r="G94" t="n" s="1049">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H94" t="n" s="1050">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I94" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -23228,13 +23109,13 @@
         <v>135</v>
       </c>
       <c r="G95" t="n" s="1049">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H95" t="n" s="1050">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I95" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -23257,13 +23138,13 @@
         <v>136</v>
       </c>
       <c r="G96" t="n" s="1049">
-        <v>-1.1584042108881816</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H96" t="n" s="1050">
-        <v>0.4686827950943565</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I96" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -23286,13 +23167,13 @@
         <v>135</v>
       </c>
       <c r="G97" t="n" s="1049">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H97" t="n" s="1050">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I97" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -23315,13 +23196,13 @@
         <v>134</v>
       </c>
       <c r="G98" t="n" s="1049">
-        <v>-0.0803884874726979</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H98" t="n" s="1050">
-        <v>0.5043580861250034</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I98" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -23344,13 +23225,13 @@
         <v>134</v>
       </c>
       <c r="G99" t="n" s="1049">
-        <v>-1.3607329886887947</v>
+        <v>-1.5225278839917182</v>
       </c>
       <c r="H99" t="n" s="1050">
-        <v>0.45264088727971863</v>
+        <v>0.45384242527133106</v>
       </c>
       <c r="I99" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -23373,13 +23254,13 @@
         <v>134</v>
       </c>
       <c r="G100" t="n" s="1049">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H100" t="n" s="1050">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I100" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -23402,13 +23283,13 @@
         <v>135</v>
       </c>
       <c r="G101" t="n" s="1049">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H101" t="n" s="1050">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I101" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
@@ -23431,13 +23312,13 @@
         <v>135</v>
       </c>
       <c r="G102" t="n" s="1049">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H102" t="n" s="1050">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I102" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
@@ -23460,13 +23341,13 @@
         <v>134</v>
       </c>
       <c r="G103" t="n" s="1049">
-        <v>2.430878115710258</v>
+        <v>2.313299396435265</v>
       </c>
       <c r="H103" t="n" s="1050">
-        <v>0.8388341444082589</v>
+        <v>0.8204623719766662</v>
       </c>
       <c r="I103" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
@@ -23489,13 +23370,13 @@
         <v>134</v>
       </c>
       <c r="G104" t="n" s="1049">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H104" t="n" s="1050">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I104" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
@@ -23518,13 +23399,13 @@
         <v>135</v>
       </c>
       <c r="G105" t="n" s="1049">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H105" t="n" s="1050">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I105" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
@@ -23547,13 +23428,13 @@
         <v>135</v>
       </c>
       <c r="G106" t="n" s="1049">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H106" t="n" s="1050">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I106" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
@@ -23576,13 +23457,13 @@
         <v>136</v>
       </c>
       <c r="G107" t="n" s="1049">
-        <v>1.555316756688846</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H107" t="n" s="1050">
-        <v>0.5752041012322622</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I107" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
@@ -23605,13 +23486,13 @@
         <v>136</v>
       </c>
       <c r="G108" t="n" s="1049">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H108" t="n" s="1050">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I108" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
@@ -23634,13 +23515,13 @@
         <v>134</v>
       </c>
       <c r="G109" t="n" s="1049">
-        <v>-1.5460174618832232</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H109" t="n" s="1050">
-        <v>0.4434453204926454</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I109" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
@@ -23663,13 +23544,13 @@
         <v>135</v>
       </c>
       <c r="G110" t="n" s="1049">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H110" t="n" s="1050">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I110" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
@@ -23692,13 +23573,13 @@
         <v>134</v>
       </c>
       <c r="G111" t="n" s="1049">
-        <v>1.2795930062205645</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H111" t="n" s="1050">
-        <v>0.5269491771185029</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I111" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
@@ -23721,13 +23602,13 @@
         <v>135</v>
       </c>
       <c r="G112" t="n" s="1049">
-        <v>1.9065404060114814</v>
+        <v>1.8149342572625908</v>
       </c>
       <c r="H112" t="n" s="1050">
-        <v>0.661225755407761</v>
+        <v>0.6498486577137698</v>
       </c>
       <c r="I112" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
@@ -23750,13 +23631,13 @@
         <v>135</v>
       </c>
       <c r="G113" t="n" s="1049">
-        <v>-2.286960722554974</v>
+        <v>-2.428716568029001</v>
       </c>
       <c r="H113" t="n" s="1050">
-        <v>0.48458789472867325</v>
+        <v>0.47754477160855874</v>
       </c>
       <c r="I113" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
@@ -23779,13 +23660,13 @@
         <v>135</v>
       </c>
       <c r="G114" t="n" s="1049">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H114" t="n" s="1050">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I114" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="115">
@@ -23808,13 +23689,13 @@
         <v>134</v>
       </c>
       <c r="G115" t="n" s="1049">
-        <v>0.8224490761629756</v>
+        <v>0.7598285502264316</v>
       </c>
       <c r="H115" t="n" s="1050">
-        <v>0.4844543610234488</v>
+        <v>0.484071561912712</v>
       </c>
       <c r="I115" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="116">
@@ -23837,13 +23718,13 @@
         <v>135</v>
       </c>
       <c r="G116" t="n" s="1049">
-        <v>-1.723758728491708</v>
+        <v>-1.8810364248477331</v>
       </c>
       <c r="H116" t="n" s="1050">
-        <v>0.4412765460507782</v>
+        <v>0.43844122679500463</v>
       </c>
       <c r="I116" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="117">
@@ -23866,13 +23747,13 @@
         <v>135</v>
       </c>
       <c r="G117" t="n" s="1049">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H117" t="n" s="1050">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I117" t="n" s="1051">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
@@ -23907,7 +23788,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1053">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -23979,34 +23860,34 @@
         <v>15.0</v>
       </c>
       <c r="C7" t="n" s="1096">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D7" t="n" s="1097">
-        <v>-0.4009336865656915</v>
+        <v>-0.25788298156977446</v>
       </c>
       <c r="E7" t="n" s="1098">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F7" t="n" s="1099">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G7" t="n" s="1100">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H7" t="n" s="1101">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I7" t="n" s="1102">
-        <v>24.91882917122069</v>
+        <v>21.605085455390828</v>
       </c>
       <c r="J7" t="n" s="1103">
-        <v>-1.0886470021434622</v>
+        <v>-0.7377900742537148</v>
       </c>
       <c r="K7" t="n" s="1104">
-        <v>0.14336337529225202</v>
+        <v>0.23429018381434175</v>
       </c>
       <c r="L7" t="n" s="1105">
-        <v>-0.3902825031270779</v>
+        <v>-0.258815542338597</v>
       </c>
       <c r="M7" t="s" s="1106">
         <v>91</v>
@@ -24017,37 +23898,37 @@
         <v>70</v>
       </c>
       <c r="B8" t="n" s="1095">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C8" t="n" s="1096">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D8" t="n" s="1097">
-        <v>0.4009336865656915</v>
+        <v>0.25788298156977446</v>
       </c>
       <c r="E8" t="n" s="1098">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F8" t="n" s="1099">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G8" t="n" s="1100">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H8" t="n" s="1101">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I8" t="n" s="1102">
-        <v>24.91882917122069</v>
+        <v>21.605085455390828</v>
       </c>
       <c r="J8" t="n" s="1103">
-        <v>-1.0886470021434622</v>
+        <v>-0.7377900742537148</v>
       </c>
       <c r="K8" t="n" s="1104">
-        <v>0.14336337529225202</v>
+        <v>0.23429018381434175</v>
       </c>
       <c r="L8" t="n" s="1105">
-        <v>-0.3902825031270779</v>
+        <v>-0.258815542338597</v>
       </c>
       <c r="M8" t="s" s="1106">
         <v>91</v>
@@ -24107,34 +23988,34 @@
         <v>15.0</v>
       </c>
       <c r="C11" t="n" s="1127">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D11" t="n" s="1128">
-        <v>-0.4009336865656915</v>
+        <v>-0.25788298156977446</v>
       </c>
       <c r="E11" t="n" s="1129">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F11" t="n" s="1130">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G11" t="n" s="1131">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H11" t="n" s="1132">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I11" t="n" s="1133">
-        <v>24.91882917122069</v>
+        <v>21.605085455390828</v>
       </c>
       <c r="J11" t="n" s="1134">
-        <v>-1.0886470021434622</v>
+        <v>-0.7377900742537148</v>
       </c>
       <c r="K11" t="n" s="1135">
-        <v>0.8566366247077479</v>
+        <v>0.7657098161856583</v>
       </c>
       <c r="L11" t="n" s="1136">
-        <v>-0.3902825031270779</v>
+        <v>-0.258815542338597</v>
       </c>
       <c r="M11" t="s" s="1137">
         <v>91</v>
@@ -24145,37 +24026,37 @@
         <v>70</v>
       </c>
       <c r="B12" t="n" s="1126">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n" s="1127">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D12" t="n" s="1128">
-        <v>0.4009336865656915</v>
+        <v>0.25788298156977446</v>
       </c>
       <c r="E12" t="n" s="1129">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F12" t="n" s="1130">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G12" t="n" s="1131">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H12" t="n" s="1132">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I12" t="n" s="1133">
-        <v>24.91882917122069</v>
+        <v>21.605085455390828</v>
       </c>
       <c r="J12" t="n" s="1134">
-        <v>-1.0886470021434622</v>
+        <v>-0.7377900742537148</v>
       </c>
       <c r="K12" t="n" s="1135">
-        <v>0.8566366247077479</v>
+        <v>0.7657098161856583</v>
       </c>
       <c r="L12" t="n" s="1136">
-        <v>-0.3902825031270779</v>
+        <v>-0.258815542338597</v>
       </c>
       <c r="M12" t="s" s="1137">
         <v>91</v>
@@ -24235,34 +24116,34 @@
         <v>15.0</v>
       </c>
       <c r="C15" t="n" s="1158">
-        <v>-0.4414834586257947</v>
+        <v>-0.5588262484131865</v>
       </c>
       <c r="D15" t="n" s="1159">
-        <v>-0.4009336865656915</v>
+        <v>-0.25788298156977446</v>
       </c>
       <c r="E15" t="n" s="1160">
-        <v>1.1431430321472844</v>
+        <v>1.177652569870644</v>
       </c>
       <c r="F15" t="n" s="1161">
-        <v>0.29515826172263215</v>
+        <v>0.30406858604849135</v>
       </c>
       <c r="G15" t="n" s="1162">
-        <v>-1.031799982071059</v>
+        <v>-1.1669634205101693</v>
       </c>
       <c r="H15" t="n" s="1163">
-        <v>0.14883306481946962</v>
+        <v>0.04931092368379619</v>
       </c>
       <c r="I15" t="n" s="1164">
-        <v>24.91882917122069</v>
+        <v>21.605085455390828</v>
       </c>
       <c r="J15" t="n" s="1165">
-        <v>-1.0886470021434622</v>
+        <v>-0.7377900742537148</v>
       </c>
       <c r="K15" t="n" s="1166">
-        <v>0.28672675058450403</v>
+        <v>0.4685803676286835</v>
       </c>
       <c r="L15" t="n" s="1167">
-        <v>-0.3902825031270779</v>
+        <v>-0.258815542338597</v>
       </c>
       <c r="M15" t="s" s="1168">
         <v>91</v>
@@ -24273,37 +24154,37 @@
         <v>70</v>
       </c>
       <c r="B16" t="n" s="1157">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C16" t="n" s="1158">
-        <v>-0.04054977206010317</v>
+        <v>-0.30094326684341205</v>
       </c>
       <c r="D16" t="n" s="1159">
-        <v>0.4009336865656915</v>
+        <v>0.25788298156977446</v>
       </c>
       <c r="E16" t="n" s="1160">
-        <v>0.7941740367053359</v>
+        <v>0.597158912943258</v>
       </c>
       <c r="F16" t="n" s="1161">
-        <v>0.22026424699871608</v>
+        <v>0.17238492956838716</v>
       </c>
       <c r="G16" t="n" s="1162">
-        <v>-0.48107826605753534</v>
+        <v>-0.6457131259801864</v>
       </c>
       <c r="H16" t="n" s="1163">
-        <v>0.399978721937329</v>
+        <v>0.043826592293362276</v>
       </c>
       <c r="I16" t="n" s="1164">
-        <v>24.91882917122069</v>
+        <v>21.605085455390828</v>
       </c>
       <c r="J16" t="n" s="1165">
-        <v>-1.0886470021434622</v>
+        <v>-0.7377900742537148</v>
       </c>
       <c r="K16" t="n" s="1166">
-        <v>0.28672675058450403</v>
+        <v>0.4685803676286835</v>
       </c>
       <c r="L16" t="n" s="1167">
-        <v>-0.3902825031270779</v>
+        <v>-0.258815542338597</v>
       </c>
       <c r="M16" t="s" s="1168">
         <v>91</v>
@@ -24718,13 +24599,13 @@
         <v>134</v>
       </c>
       <c r="G90" t="n" s="1205">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H90" t="n" s="1206">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I90" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="91">
@@ -24747,13 +24628,13 @@
         <v>135</v>
       </c>
       <c r="G91" t="n" s="1205">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H91" t="n" s="1206">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I91" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="92">
@@ -24776,13 +24657,13 @@
         <v>134</v>
       </c>
       <c r="G92" t="n" s="1205">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H92" t="n" s="1206">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I92" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="93">
@@ -24805,13 +24686,13 @@
         <v>136</v>
       </c>
       <c r="G93" t="n" s="1205">
-        <v>0.39489127659420636</v>
+        <v>0.3307476835296113</v>
       </c>
       <c r="H93" t="n" s="1206">
-        <v>0.48227608647545783</v>
+        <v>0.48658427925818015</v>
       </c>
       <c r="I93" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="94">
@@ -24834,13 +24715,13 @@
         <v>135</v>
       </c>
       <c r="G94" t="n" s="1205">
-        <v>-0.9264124251632999</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H94" t="n" s="1206">
-        <v>0.4899370112419287</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I94" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="95">
@@ -24863,13 +24744,13 @@
         <v>135</v>
       </c>
       <c r="G95" t="n" s="1205">
-        <v>-0.3588140158678748</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H95" t="n" s="1206">
-        <v>0.5140925201529228</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I95" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="96">
@@ -24892,13 +24773,13 @@
         <v>136</v>
       </c>
       <c r="G96" t="n" s="1205">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H96" t="n" s="1206">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I96" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="97">
@@ -24921,13 +24802,13 @@
         <v>134</v>
       </c>
       <c r="G97" t="n" s="1205">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H97" t="n" s="1206">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I97" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="98">
@@ -24950,13 +24831,13 @@
         <v>135</v>
       </c>
       <c r="G98" t="n" s="1205">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H98" t="n" s="1206">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I98" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="99">
@@ -24979,13 +24860,13 @@
         <v>136</v>
       </c>
       <c r="G99" t="n" s="1205">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H99" t="n" s="1206">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I99" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="100">
@@ -25008,13 +24889,13 @@
         <v>135</v>
       </c>
       <c r="G100" t="n" s="1205">
-        <v>1.0416617962434696</v>
+        <v>0.976849840874514</v>
       </c>
       <c r="H100" t="n" s="1206">
-        <v>0.4991231961083911</v>
+        <v>0.4967601069555859</v>
       </c>
       <c r="I100" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="101">
@@ -25037,13 +24918,13 @@
         <v>134</v>
       </c>
       <c r="G101" t="n" s="1205">
-        <v>0.6099736974815417</v>
+        <v>0.5476072475613166</v>
       </c>
       <c r="H101" t="n" s="1206">
-        <v>0.4794598068941739</v>
+        <v>0.4811845452515125</v>
       </c>
       <c r="I101" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="102">
@@ -25066,13 +24947,13 @@
         <v>134</v>
       </c>
       <c r="G102" t="n" s="1205">
-        <v>-0.6543326517017414</v>
+        <v>-0.7858124919064018</v>
       </c>
       <c r="H102" t="n" s="1206">
-        <v>0.5092799511321389</v>
+        <v>0.5266978741821854</v>
       </c>
       <c r="I102" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="103">
@@ -25095,85 +24976,85 @@
         <v>134</v>
       </c>
       <c r="G103" t="n" s="1205">
-        <v>0.1681393885805358</v>
+        <v>0.09937111631830206</v>
       </c>
       <c r="H103" t="n" s="1206">
-        <v>0.4914511555030068</v>
+        <v>0.49928370005319356</v>
       </c>
       <c r="I103" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="1199">
-        <v>10200.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B104" t="n" s="1200">
-        <v>9795272.0</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C104" t="s" s="1201">
         <v>28</v>
       </c>
       <c r="D104" t="s" s="1202">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s" s="1203">
         <v>29</v>
       </c>
       <c r="F104" t="s" s="1204">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G104" t="n" s="1205">
-        <v>1.9065404060114814</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H104" t="n" s="1206">
-        <v>0.661225755407761</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I104" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="1199">
-        <v>10209.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B105" t="n" s="1200">
-        <v>1.0262669E7</v>
+        <v>9311643.0</v>
       </c>
       <c r="C105" t="s" s="1201">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s" s="1202">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E105" t="s" s="1203">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s" s="1204">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G105" t="n" s="1205">
-        <v>-1.1584042108881816</v>
+        <v>1.4778855198152379</v>
       </c>
       <c r="H105" t="n" s="1206">
-        <v>0.4686827950943565</v>
+        <v>0.5679085881803527</v>
       </c>
       <c r="I105" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="1199">
-        <v>10211.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B106" t="n" s="1200">
-        <v>9311643.0</v>
+        <v>9065750.0</v>
       </c>
       <c r="C106" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D106" t="s" s="1202">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E106" t="s" s="1203">
         <v>30</v>
@@ -25182,27 +25063,27 @@
         <v>135</v>
       </c>
       <c r="G106" t="n" s="1205">
-        <v>1.555316756688846</v>
+        <v>1.21022663455132</v>
       </c>
       <c r="H106" t="n" s="1206">
-        <v>0.5752041012322622</v>
+        <v>0.5224173439927122</v>
       </c>
       <c r="I106" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="1199">
-        <v>10212.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B107" t="n" s="1200">
-        <v>9065750.0</v>
+        <v>1.0277022E7</v>
       </c>
       <c r="C107" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D107" t="s" s="1202">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E107" t="s" s="1203">
         <v>30</v>
@@ -25211,27 +25092,27 @@
         <v>135</v>
       </c>
       <c r="G107" t="n" s="1205">
-        <v>1.2795930062205645</v>
+        <v>-1.7062677984647994</v>
       </c>
       <c r="H107" t="n" s="1206">
-        <v>0.5269491771185029</v>
+        <v>0.4422830817442954</v>
       </c>
       <c r="I107" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="1199">
-        <v>10214.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B108" t="n" s="1200">
-        <v>1.0277022E7</v>
+        <v>1.027672E7</v>
       </c>
       <c r="C108" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D108" t="s" s="1202">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s" s="1203">
         <v>30</v>
@@ -25240,27 +25121,27 @@
         <v>135</v>
       </c>
       <c r="G108" t="n" s="1205">
-        <v>-1.5460174618832232</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H108" t="n" s="1206">
-        <v>0.4434453204926454</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I108" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="1199">
-        <v>10216.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B109" t="n" s="1200">
-        <v>1.027672E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C109" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D109" t="s" s="1202">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s" s="1203">
         <v>30</v>
@@ -25269,27 +25150,27 @@
         <v>135</v>
       </c>
       <c r="G109" t="n" s="1205">
-        <v>-0.3588140158678748</v>
+        <v>-1.3190389605573976</v>
       </c>
       <c r="H109" t="n" s="1206">
-        <v>0.5140925201529228</v>
+        <v>0.47357019130287153</v>
       </c>
       <c r="I109" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="1199">
-        <v>10217.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B110" t="n" s="1200">
-        <v>9805341.0</v>
+        <v>1.0276831E7</v>
       </c>
       <c r="C110" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D110" t="s" s="1202">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E110" t="s" s="1203">
         <v>30</v>
@@ -25298,85 +25179,85 @@
         <v>135</v>
       </c>
       <c r="G110" t="n" s="1205">
-        <v>-1.1584042108881816</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H110" t="n" s="1206">
-        <v>0.4686827950943565</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I110" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="1199">
-        <v>10219.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B111" t="n" s="1200">
-        <v>1.0276831E7</v>
+        <v>9082496.0</v>
       </c>
       <c r="C111" t="s" s="1201">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s" s="1202">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E111" t="s" s="1203">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s" s="1204">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G111" t="n" s="1205">
-        <v>-0.9264124251632999</v>
+        <v>-0.45849883119073304</v>
       </c>
       <c r="H111" t="n" s="1206">
-        <v>0.4899370112419287</v>
+        <v>0.532055667785535</v>
       </c>
       <c r="I111" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="1199">
-        <v>10221.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B112" t="n" s="1200">
-        <v>9082496.0</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C112" t="s" s="1201">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s" s="1202">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s" s="1203">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s" s="1204">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G112" t="n" s="1205">
-        <v>-0.3588140158678748</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H112" t="n" s="1206">
-        <v>0.5140925201529228</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I112" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="1199">
-        <v>10226.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B113" t="n" s="1200">
-        <v>1.0310342E7</v>
+        <v>1.0351992E7</v>
       </c>
       <c r="C113" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D113" t="s" s="1202">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E113" t="s" s="1203">
         <v>30</v>
@@ -25385,27 +25266,27 @@
         <v>135</v>
       </c>
       <c r="G113" t="n" s="1205">
-        <v>-0.9264124251632999</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H113" t="n" s="1206">
-        <v>0.4899370112419287</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I113" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="1199">
-        <v>10230.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B114" t="n" s="1200">
-        <v>1.0351992E7</v>
+        <v>1.0310676E7</v>
       </c>
       <c r="C114" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D114" t="s" s="1202">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s" s="1203">
         <v>30</v>
@@ -25414,27 +25295,27 @@
         <v>135</v>
       </c>
       <c r="G114" t="n" s="1205">
-        <v>-2.0863945084249242</v>
+        <v>-2.234625672799537</v>
       </c>
       <c r="H114" t="n" s="1206">
-        <v>0.4600204758925508</v>
+        <v>0.4545023876810653</v>
       </c>
       <c r="I114" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="1199">
-        <v>10234.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B115" t="n" s="1200">
-        <v>1.0310676E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C115" t="s" s="1201">
         <v>27</v>
       </c>
       <c r="D115" t="s" s="1202">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s" s="1203">
         <v>30</v>
@@ -25443,71 +25324,42 @@
         <v>135</v>
       </c>
       <c r="G115" t="n" s="1205">
-        <v>-2.0863945084249242</v>
+        <v>-0.15910373489080612</v>
       </c>
       <c r="H115" t="n" s="1206">
-        <v>0.4600204758925508</v>
+        <v>0.5171112421356908</v>
       </c>
       <c r="I115" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="1199">
-        <v>10237.0</v>
+        <v>10240.0</v>
       </c>
       <c r="B116" t="n" s="1200">
-        <v>1.0377688E7</v>
+        <v>1.0276654E7</v>
       </c>
       <c r="C116" t="s" s="1201">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s" s="1202">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s" s="1203">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s" s="1204">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G116" t="n" s="1205">
-        <v>-0.0803884874726979</v>
+        <v>-1.0794969917334136</v>
       </c>
       <c r="H116" t="n" s="1206">
-        <v>0.5043580861250034</v>
+        <v>0.5006380569915303</v>
       </c>
       <c r="I116" t="n" s="1207">
-        <v>0.7953280307097791</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n" s="1199">
-        <v>10240.0</v>
-      </c>
-      <c r="B117" t="n" s="1200">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C117" t="s" s="1201">
-        <v>28</v>
-      </c>
-      <c r="D117" t="s" s="1202">
-        <v>124</v>
-      </c>
-      <c r="E117" t="s" s="1203">
-        <v>29</v>
-      </c>
-      <c r="F117" t="s" s="1204">
-        <v>134</v>
-      </c>
-      <c r="G117" t="n" s="1205">
-        <v>-0.9264124251632999</v>
-      </c>
-      <c r="H117" t="n" s="1206">
-        <v>0.4899370112419287</v>
-      </c>
-      <c r="I117" t="n" s="1207">
-        <v>0.7953280307097791</v>
+        <v>0.8265961129983331</v>
       </c>
     </row>
   </sheetData>
